--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="85">
   <si>
     <t>Result</t>
   </si>
@@ -199,6 +199,105 @@
   </si>
   <si>
     <t>Mon Oct 02 22:18:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 12:04:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:05:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:05:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:05:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:06:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:06:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:06:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:10:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:10:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:10:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:11:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:11:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:11:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:12:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:12:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:12:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:13:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:13:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:13:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:13:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:14:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 13:14:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:28:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:34:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:35:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:35:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:35:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:36:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:45:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:45:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:46:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:46:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 03 15:47:05 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -619,7 +718,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1050,8 +1149,12 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1069,8 +1172,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1085,8 +1192,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1104,8 +1215,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1123,8 +1238,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1142,8 +1261,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1212,8 +1335,12 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1228,8 +1355,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1247,8 +1378,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1266,8 +1401,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1285,8 +1424,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1304,8 +1447,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1320,8 +1467,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1339,8 +1490,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1358,8 +1513,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1377,8 +1536,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1396,8 +1559,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1412,8 +1579,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1431,8 +1602,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1450,8 +1625,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1469,8 +1648,12 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1643,8 +1826,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1659,8 +1846,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1675,8 +1866,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1691,8 +1886,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1906,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1766,8 +1969,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1782,8 +1989,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1798,8 +2009,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1814,8 +2029,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1830,8 +2049,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1886,8 +2109,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="134">
   <si>
     <t>Result</t>
   </si>
@@ -298,6 +298,153 @@
   </si>
   <si>
     <t>Tue Oct 03 15:47:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:43:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:43:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:43:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:43:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:44:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:44:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:44:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:45:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:45:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:45:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:46:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:46:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:46:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:46:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:47:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:47:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:47:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:48:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:48:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:48:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:49:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:49:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:49:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:49:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:50:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:50:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:50:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:51:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:51:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:51:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:52:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:52:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:52:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:53:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:53:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:53:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:53:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:54:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:54:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:54:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:55:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:55:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:55:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:56:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:56:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:57:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:57:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:57:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:58:21 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -718,7 +865,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -741,7 +888,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -760,8 +907,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -782,8 +933,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -804,8 +959,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -826,8 +985,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -899,7 +1062,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -916,7 +1079,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -933,7 +1096,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -950,7 +1113,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -970,7 +1133,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -990,7 +1153,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1007,7 +1170,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1024,7 +1187,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1041,7 +1204,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1058,7 +1221,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1078,7 +1241,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1153,7 +1316,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1176,7 +1339,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1196,7 +1359,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1219,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1242,7 +1405,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1265,7 +1428,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1339,7 +1502,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1359,7 +1522,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1382,7 +1545,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1405,7 +1568,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1428,7 +1591,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1451,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1471,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1494,7 +1657,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1517,7 +1680,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1540,7 +1703,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1563,7 +1726,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1583,7 +1746,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -1606,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1629,7 +1792,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -1652,7 +1815,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -1830,7 +1993,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1850,7 +2013,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1870,7 +2033,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1890,7 +2053,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1910,7 +2073,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1973,7 +2136,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1993,7 +2156,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2013,7 +2176,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2033,7 +2196,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2053,7 +2216,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2113,7 +2276,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="183">
   <si>
     <t>Result</t>
   </si>
@@ -445,6 +445,153 @@
   </si>
   <si>
     <t>Fri Oct 06 12:58:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:50:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:51:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:51:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:51:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:52:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:52:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:52:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:52:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:53:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:53:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:53:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:54:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:54:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:54:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:54:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:55:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:55:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:55:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:55:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:56:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:56:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:56:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:57:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:57:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:57:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:58:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:58:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:58:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:58:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:59:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:59:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:59:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:00:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:00:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:00:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:00:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:01:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:01:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:01:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:02:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:02:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:02:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:03:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:03:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:03:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:04:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:04:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:04:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 00:05:25 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -865,7 +1012,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -888,7 +1035,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -911,7 +1058,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -937,7 +1084,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -963,7 +1110,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -989,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1062,7 +1209,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1079,7 +1226,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1096,7 +1243,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1113,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1133,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1153,7 +1300,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1170,7 +1317,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1187,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1204,7 +1351,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1221,7 +1368,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1241,7 +1388,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1316,7 +1463,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1339,7 +1486,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1359,7 +1506,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1382,7 +1529,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1405,7 +1552,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1428,7 +1575,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1502,7 +1649,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1522,7 +1669,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1545,7 +1692,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1568,7 +1715,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1591,7 +1738,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1614,7 +1761,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1634,7 +1781,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1657,7 +1804,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1680,7 +1827,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1703,7 +1850,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1726,7 +1873,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1746,7 +1893,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -1769,7 +1916,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1792,7 +1939,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -1815,7 +1962,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -1993,7 +2140,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2013,7 +2160,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2033,7 +2180,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2053,7 +2200,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2073,7 +2220,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2136,7 +2283,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2156,7 +2303,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2176,7 +2323,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2196,7 +2343,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2216,7 +2363,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2276,7 +2423,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="232">
   <si>
     <t>Result</t>
   </si>
@@ -592,6 +592,153 @@
   </si>
   <si>
     <t>Tue Oct 10 00:05:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:55:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:55:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:55:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:56:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:56:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:56:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:57:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:57:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:57:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:57:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:58:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:58:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:58:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:58:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:59:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:59:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:59:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:59:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:00:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:00:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:00:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:01:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:01:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:01:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:01:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:02:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:02:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:02:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:02:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:03:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:03:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:03:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:04:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:04:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:04:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:04:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:05:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:05:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:05:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:06:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:06:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:06:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:06:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:07:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:07:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:07:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:08:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:08:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:09:09 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1159,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1035,7 +1182,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1058,7 +1205,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1084,7 +1231,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1110,7 +1257,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1136,7 +1283,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1209,7 +1356,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1226,7 +1373,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1243,7 +1390,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1260,7 +1407,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1280,7 +1427,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1300,7 +1447,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1317,7 +1464,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1334,7 +1481,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1351,7 +1498,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1368,7 +1515,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1388,7 +1535,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1463,7 +1610,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1486,7 +1633,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1506,7 +1653,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1529,7 +1676,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1552,7 +1699,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1575,7 +1722,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1649,7 +1796,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1669,7 +1816,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1692,7 +1839,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1715,7 +1862,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1738,7 +1885,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1761,7 +1908,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1781,7 +1928,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1804,7 +1951,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1827,7 +1974,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1850,7 +1997,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1873,7 +2020,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1893,7 +2040,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -1916,7 +2063,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1939,7 +2086,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -1962,7 +2109,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -2140,7 +2287,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2160,7 +2307,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2180,7 +2327,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2200,7 +2347,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2220,7 +2367,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2283,7 +2430,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2303,7 +2450,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2323,7 +2470,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2343,7 +2490,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2363,7 +2510,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2423,7 +2570,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4584C9BD-735B-40C0-9254-64746034A3B8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EC6CB9BA-9081-4D77-8D18-119F57C24495}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView activeTab="7" firstSheet="3" windowHeight="14565" windowWidth="18810" xWindow="8505" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="1395"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="98">
   <si>
     <t>Result</t>
   </si>
@@ -153,13 +153,160 @@
     <t>FEINSSN</t>
   </si>
   <si>
-    <t>Mon Oct 02 13:53:12 EDT 2023</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Mon Oct 02 13:53:34 EDT 2023</t>
+    <t>Wed Nov 01 15:59:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:00:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:00:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:00:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:01:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 16:01:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>DONOTRUN</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:51:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:51:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:51:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:51:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:52:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:52:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:52:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:53:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:53:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:53:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:53:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:54:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:54:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:54:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:54:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:55:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:55:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:55:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:55:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:56:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:56:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:56:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:57:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:57:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:57:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:57:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:58:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:58:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:58:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:59:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:59:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:59:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:59:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 23:00:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 23:00:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 23:00:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 23:01:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 23:01:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 23:01:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 23:02:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 23:02:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 23:02:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 23:03:15 EST 2023</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
   </si>
   <si>
     <t/>
@@ -168,577 +315,28 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Mon Oct 02 22:15:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 22:15:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 22:16:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 22:16:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 22:16:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 22:16:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 22:17:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 22:17:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 22:17:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 22:18:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 22:18:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 12:04:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:05:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:05:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:05:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:06:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:06:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:06:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:10:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:10:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:10:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:11:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:11:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:11:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:12:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:12:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:12:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:13:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:13:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:13:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:13:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:14:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 13:14:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:28:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:34:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:35:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:35:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:35:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:36:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:45:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:45:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:46:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:46:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 03 15:47:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:43:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:43:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:43:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:43:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:44:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:44:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:44:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:45:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:45:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:45:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:46:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:46:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:46:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:46:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:47:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:47:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:47:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:48:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:48:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:48:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:49:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:49:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:49:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:49:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:50:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:50:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:50:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:51:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:51:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:51:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:52:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:52:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:52:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:53:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:53:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:53:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:53:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:54:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:54:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:54:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:55:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:55:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:55:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:56:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:56:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:57:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:57:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:57:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:58:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:50:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:51:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:51:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:51:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:52:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:52:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:52:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:52:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:53:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:53:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:53:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:54:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:54:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:54:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:54:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:55:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:55:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:55:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:55:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:56:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:56:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:56:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:57:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:57:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:57:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:58:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:58:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:58:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:58:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:59:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:59:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:59:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:00:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:00:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:00:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:00:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:01:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:01:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:01:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:02:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:02:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:02:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:03:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:03:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:03:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:04:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:04:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:04:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 00:05:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:55:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:55:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:55:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:56:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:56:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:56:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:57:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:57:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:57:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:57:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:58:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:58:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:58:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:58:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:59:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:59:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:59:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:59:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:00:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:00:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:00:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:01:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:01:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:01:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:01:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:02:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:02:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:02:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:02:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:03:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:03:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:03:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:04:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:04:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:04:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:04:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:05:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:05:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:05:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:06:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:06:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:06:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:06:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:07:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:07:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:07:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:08:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:08:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:09:09 EDT 2023</t>
+    <t>Fri Dec 08 10:57:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:58:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:58:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:58:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:59:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:59:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 11:00:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 11:00:25 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +754,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1179,10 +777,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1202,10 +800,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1228,10 +826,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1254,10 +852,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1280,10 +878,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1317,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1353,10 +951,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1370,10 +968,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1387,10 +985,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1404,10 +1002,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1424,10 +1022,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1444,10 +1042,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1461,10 +1059,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1478,10 +1076,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1495,10 +1093,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1512,10 +1110,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1532,10 +1130,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1563,14 +1161,14 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
     <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
@@ -1607,13 +1205,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>200</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1630,13 +1228,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -1650,13 +1248,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1673,13 +1271,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -1696,13 +1294,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -1719,13 +1317,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -1793,10 +1391,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1813,10 +1411,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1836,10 +1434,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1859,10 +1457,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1882,10 +1480,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1905,10 +1503,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1925,10 +1523,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1948,10 +1546,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1971,10 +1569,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1994,10 +1592,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -2017,10 +1615,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -2037,10 +1635,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -2060,10 +1658,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -2083,10 +1681,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -2106,10 +1704,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -2140,14 +1738,14 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -2193,6 +1791,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2249,14 +1850,14 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -2284,10 +1885,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2304,13 +1905,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2324,10 +1925,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2344,10 +1945,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2364,10 +1965,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2392,14 +1993,14 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -2427,10 +2028,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2447,13 +2048,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2467,10 +2068,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2487,10 +2088,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2507,10 +2108,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2534,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2567,10 +2168,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="99">
   <si>
     <t>Result</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Fri Dec 08 11:00:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 22 13:23:59 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2174,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EC6CB9BA-9081-4D77-8D18-119F57C24495}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3005C80-7BC8-4FE0-9B90-C7754F3F1044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="3" windowHeight="14565" windowWidth="18810" xWindow="8505" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="1395"/>
+    <workbookView xWindow="1245" yWindow="2475" windowWidth="24525" windowHeight="14010" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="97">
   <si>
     <t>Result</t>
   </si>
@@ -141,9 +141,6 @@
     <t>2021</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -273,48 +270,15 @@
     <t>Thu Dec 07 22:59:34 EST 2023</t>
   </si>
   <si>
-    <t>Thu Dec 07 22:59:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 23:00:10 EST 2023</t>
-  </si>
-  <si>
     <t>Thu Dec 07 23:00:27 EST 2023</t>
   </si>
   <si>
-    <t>Thu Dec 07 23:00:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 23:01:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 23:01:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 23:01:36 EST 2023</t>
-  </si>
-  <si>
     <t>Thu Dec 07 23:02:01 EST 2023</t>
   </si>
   <si>
-    <t>Thu Dec 07 23:02:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 23:02:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 23:03:15 EST 2023</t>
-  </si>
-  <si>
     <t>DoNotRun</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Fri Dec 08 10:57:58 EST 2023</t>
   </si>
   <si>
@@ -340,17 +304,52 @@
   </si>
   <si>
     <t>Fri Dec 22 13:23:59 EST 2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Admissions and Amusement Tax</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
+  </si>
+  <si>
+    <t>Motor Fuel Tax</t>
+  </si>
+  <si>
+    <t>Slots License Fee</t>
+  </si>
+  <si>
+    <t>Tobacco Tax</t>
+  </si>
+  <si>
+    <t>Transportation Network Services</t>
+  </si>
+  <si>
+    <t>Unclaimed Property</t>
+  </si>
+  <si>
+    <t>IFTA Tax</t>
+  </si>
+  <si>
+    <t>Sales and Use Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,19 +388,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -418,10 +417,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -456,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -508,7 +507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -619,21 +618,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -650,7 +649,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -702,31 +701,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,18 +751,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -772,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -780,13 +779,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -795,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -803,13 +802,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -818,24 +817,24 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -844,24 +843,24 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -870,24 +869,24 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -896,18 +895,19 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -915,21 +915,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,18 +949,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -988,13 +988,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -1005,13 +1005,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -1020,18 +1020,18 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -1040,18 +1040,18 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
@@ -1062,13 +1062,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
@@ -1096,13 +1096,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -1113,13 +1113,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -1128,18 +1128,18 @@
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -1148,11 +1148,99 @@
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1160,8 +1248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1169,15 +1257,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1203,18 +1291,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1231,13 +1319,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -1251,13 +1339,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1269,18 +1357,18 @@
         <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -1292,18 +1380,18 @@
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -1315,18 +1403,18 @@
         <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -1338,11 +1426,11 @@
         <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1350,23 +1438,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1389,18 +1477,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -1409,18 +1497,18 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -1429,21 +1517,21 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -1452,21 +1540,21 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1475,21 +1563,21 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1498,21 +1586,21 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -1521,18 +1609,18 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -1541,21 +1629,21 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -1564,21 +1652,21 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -1587,21 +1675,21 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -1610,21 +1698,21 @@
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -1633,18 +1721,18 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -1653,21 +1741,21 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -1676,21 +1764,21 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
@@ -1699,21 +1787,21 @@
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -1722,14 +1810,560 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1737,24 +2371,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +2429,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1815,7 +2449,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,7 +2460,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,11 +2471,11 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1849,21 +2483,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,13 +2522,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -1903,18 +2537,18 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -1928,13 +2562,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -1943,18 +2577,18 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1963,18 +2597,18 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1983,30 +2617,30 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,13 +2665,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -2046,18 +2680,18 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2071,13 +2705,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -2086,18 +2720,18 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -2106,18 +2740,18 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -2126,30 +2760,30 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2171,13 +2805,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -2187,6 +2821,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3005C80-7BC8-4FE0-9B90-C7754F3F1044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B1D48EA4-0925-48DC-B9E2-9355ABE833D2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="2475" windowWidth="24525" windowHeight="14010" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="1" windowHeight="14010" windowWidth="24525" xWindow="1725" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="1275"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="219">
   <si>
     <t>Result</t>
   </si>
@@ -174,102 +174,6 @@
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t>Thu Dec 07 22:51:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:51:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:51:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:51:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:52:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:52:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:52:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:53:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:53:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:53:36 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:53:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:54:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:54:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:54:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:54:54 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:55:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:55:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:55:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:55:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:56:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:56:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:56:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:57:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:57:22 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:57:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:57:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:58:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:58:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:58:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:59:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:59:18 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:59:34 EST 2023</t>
-  </si>
-  <si>
     <t>Thu Dec 07 23:00:27 EST 2023</t>
   </si>
   <si>
@@ -279,33 +183,6 @@
     <t>DoNotRun</t>
   </si>
   <si>
-    <t>Fri Dec 08 10:57:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:58:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:58:34 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:58:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:59:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:59:35 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 11:00:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 11:00:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 22 13:23:59 EST 2023</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
@@ -334,12 +211,502 @@
   </si>
   <si>
     <t>Sales and Use Tax</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:34:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:35:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:35:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:35:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:36:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:36:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:36:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:36:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:37:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:37:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:37:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:37:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:38:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:38:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:38:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:38:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:39:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:39:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:40:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:40:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:40:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:40:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:41:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:41:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:41:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:41:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:42:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:42:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:42:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:43:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:43:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:43:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:43:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:44:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:44:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:44:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:45:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:45:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:45:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:45:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:46:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:46:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:46:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:47:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:47:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:47:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:48:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:48:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:48:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:48:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:49:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:49:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:49:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:50:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:50:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:50:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:51:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:51:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:51:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:52:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:52:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:52:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:52:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:53:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:53:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:53:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:53:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:54:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:54:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:55:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:55:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:55:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:55:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:56:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:56:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:56:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:57:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:57:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:57:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:57:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:58:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:58:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:59:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:59:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:45:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:46:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:46:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:47:00 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:49:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:49:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:50:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:50:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:50:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:50:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:51:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:51:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:51:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:52:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:52:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:52:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:52:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:53:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:53:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:53:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:54:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:54:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:54:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:54:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:55:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:55:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:55:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:56:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:56:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:56:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:56:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:57:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:57:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:57:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:58:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:58:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:58:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:58:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:59:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:59:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 17:59:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:00:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:00:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:00:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:01:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:01:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:01:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:01:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:02:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:02:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:02:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:03:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:03:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:03:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:04:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:04:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:04:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:04:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:05:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:05:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:05:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:06:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:06:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:06:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:06:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:07:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:07:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:07:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:08:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:08:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:08:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:09:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:09:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:09:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:09:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:10:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 18:10:30 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,19 +755,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -417,10 +784,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -455,7 +822,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -507,7 +874,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -618,21 +985,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -649,7 +1016,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -701,15 +1068,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -717,15 +1084,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,7 +1126,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -771,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -782,7 +1149,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -794,7 +1161,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -805,7 +1172,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -817,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -831,7 +1198,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -843,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -857,7 +1224,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -869,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -883,7 +1250,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -895,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -906,8 +1273,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -915,21 +1282,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -957,7 +1324,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -974,7 +1341,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -991,7 +1358,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1008,7 +1375,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1028,7 +1395,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1048,7 +1415,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1065,7 +1432,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1082,7 +1449,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1099,7 +1466,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1116,7 +1483,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1136,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1152,6 +1519,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1159,10 +1532,16 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1170,10 +1549,16 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1181,10 +1566,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1192,10 +1583,16 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1203,10 +1600,19 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1214,10 +1620,16 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1225,10 +1637,16 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1236,11 +1654,11 @@
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1248,8 +1666,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1257,15 +1675,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,7 +1848,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1438,23 +1856,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:G55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1485,7 +1903,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1505,7 +1923,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1528,7 +1946,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1551,7 +1969,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1574,7 +1992,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1597,7 +2015,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1617,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1640,7 +2058,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1663,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1686,7 +2104,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1709,7 +2127,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1729,7 +2147,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1752,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1775,7 +2193,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1798,7 +2216,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1816,7 +2234,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1824,13 +2248,19 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1844,7 +2274,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +2294,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1872,7 +2314,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1880,13 +2328,19 @@
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1894,13 +2348,19 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1908,13 +2368,19 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1922,13 +2388,19 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1942,7 +2414,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,13 +2428,22 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,13 +2451,19 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1978,13 +2471,19 @@
         <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>192</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1998,7 +2497,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2006,13 +2511,19 @@
         <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2026,7 +2537,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2040,7 +2557,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>196</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2054,7 +2577,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2062,13 +2591,19 @@
         <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
@@ -2076,13 +2611,19 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>199</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
@@ -2090,13 +2631,19 @@
         <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>200</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
@@ -2104,13 +2651,19 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>201</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,7 +2677,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>202</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2132,13 +2691,22 @@
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2146,13 +2714,19 @@
         <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
@@ -2160,13 +2734,19 @@
         <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>205</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
       </c>
@@ -2180,7 +2760,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
@@ -2188,13 +2774,19 @@
         <v>16</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>207</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,7 +2800,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>208</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
       </c>
@@ -2222,7 +2820,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
       </c>
@@ -2236,7 +2840,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>210</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
       </c>
@@ -2244,13 +2854,19 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
       </c>
@@ -2258,13 +2874,19 @@
         <v>16</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>212</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
       </c>
@@ -2272,13 +2894,19 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>213</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
       </c>
@@ -2286,13 +2914,19 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>214</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
       </c>
@@ -2306,7 +2940,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>215</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
       </c>
@@ -2314,13 +2954,22 @@
         <v>16</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
       </c>
@@ -2328,13 +2977,19 @@
         <v>16</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
       </c>
@@ -2342,13 +2997,19 @@
         <v>16</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>218</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>32</v>
       </c>
@@ -2363,7 +3024,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2371,8 +3032,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2380,15 +3041,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +3090,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -2475,7 +3136,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2483,8 +3144,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F6"/>
@@ -2492,12 +3153,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2525,7 +3186,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2537,7 +3198,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2545,10 +3206,10 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2565,7 +3226,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2585,7 +3246,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2605,7 +3266,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2621,13 +3282,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F6"/>
@@ -2635,12 +3296,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,7 +3329,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2680,7 +3341,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2688,10 +3349,10 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2708,7 +3369,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2728,7 +3389,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2748,7 +3409,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2764,13 +3425,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2778,12 +3439,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2808,7 +3469,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2821,6 +3482,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B1D48EA4-0925-48DC-B9E2-9355ABE833D2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{32979013-C667-40F4-9B45-36A44D9BCA25}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="14010" windowWidth="24525" xWindow="1725" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="1275"/>
+    <workbookView activeTab="7" windowHeight="14010" windowWidth="24525" xWindow="1680" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="2580"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="211">
   <si>
     <t>Result</t>
   </si>
@@ -213,268 +213,256 @@
     <t>Sales and Use Tax</t>
   </si>
   <si>
-    <t>Sun Jan 14 16:34:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:35:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:35:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:35:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:36:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:36:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:36:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:36:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:37:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:37:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:37:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:37:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:38:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:38:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:38:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:38:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:39:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:39:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:40:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:40:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:40:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:40:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:41:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:41:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:41:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:41:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:42:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:42:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:42:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:43:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:43:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:43:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:43:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:44:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:44:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:44:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:45:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:45:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:45:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:45:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:46:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:46:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:46:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:47:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:47:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:47:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:48:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:48:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:48:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:48:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:49:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:49:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:49:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:50:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:50:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:50:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:51:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:51:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:51:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:52:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:52:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:52:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:52:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:53:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:53:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:53:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:53:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:54:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:54:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:55:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:55:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:55:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:55:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:56:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:56:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:56:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:57:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:57:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:57:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:57:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:58:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:58:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:59:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:59:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:45:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:46:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:46:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:47:00 EST 2024</t>
+    <t>Thu Jan 25 20:09:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:09:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:10:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:10:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:10:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:11:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:11:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:11:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:11:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:12:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:12:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:12:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:13:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:13:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:13:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:14:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:14:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:15:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:15:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:15:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:16:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:16:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:16:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:17:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:17:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:17:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:18:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:18:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:18:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:18:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:19:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:19:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:19:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:20:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:20:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:20:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:21:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:21:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:21:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:22:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:22:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:22:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:23:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:23:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:24:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:24:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:24:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:24:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:25:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:25:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:25:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:26:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:26:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:26:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:27:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:27:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:28:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:28:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:28:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:29:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:29:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:29:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:30:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:30:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:30:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:30:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:31:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:31:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:32:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:32:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:32:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:33:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:33:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:33:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:34:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:34:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:34:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:35:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:35:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:35:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:36:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:36:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 20:37:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 21:49:48 EST 2024</t>
   </si>
   <si>
     <t/>
@@ -483,223 +471,211 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Sun Jan 14 17:49:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:49:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:50:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:50:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:50:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:50:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:51:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:51:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:51:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:52:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:52:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:52:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:52:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:53:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:53:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:53:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:54:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:54:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:54:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:54:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:55:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:55:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:55:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:56:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:56:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:56:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:56:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:57:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:57:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:57:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:58:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:58:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:58:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:58:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:59:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:59:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 17:59:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:00:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:00:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:00:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:01:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:01:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:01:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:01:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:02:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:02:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:02:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:03:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:03:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:03:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:04:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:04:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:04:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:04:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:05:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:05:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:05:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:06:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:06:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:06:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:06:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:07:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:07:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:07:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:08:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:08:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:08:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:09:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:09:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:09:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:09:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:10:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 18:10:30 EST 2024</t>
+    <t>Sat Jan 27 23:19:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:19:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:20:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:20:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:20:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:21:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:21:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:21:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:21:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:22:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:22:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:22:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:23:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:23:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:23:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:24:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:24:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:24:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:24:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:25:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:25:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:25:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:26:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:26:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:26:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:27:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:27:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:27:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:28:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:28:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:28:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:29:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:29:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:29:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:30:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:30:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:30:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:31:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:31:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:31:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:32:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:32:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:32:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:33:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:33:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:33:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:34:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:34:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:34:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:35:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:35:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:35:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:35:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:36:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:36:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:36:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:37:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:37:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:37:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:38:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:38:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:38:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:39:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:39:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:39:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:40:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:40:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:40:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 27 23:41:02 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1300,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1341,7 +1317,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1358,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1375,7 +1351,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1395,7 +1371,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1415,7 +1391,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1432,7 +1408,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1449,7 +1425,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1466,7 +1442,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1483,7 +1459,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1503,7 +1479,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1523,7 +1499,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1540,7 +1516,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1549,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,7 +1533,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1566,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,7 +1550,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1583,15 +1559,18 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1600,18 +1579,15 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1620,15 +1596,15 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1637,23 +1613,6 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1857,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:C55"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1862,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1923,7 +1882,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1946,7 +1905,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1969,7 +1928,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1992,7 +1951,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2015,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2035,7 +1994,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2058,7 +2017,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2081,7 +2040,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2104,7 +2063,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2127,7 +2086,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2147,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2170,7 +2129,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2193,7 +2152,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2216,7 +2175,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2239,7 +2198,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2259,7 +2218,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2279,7 +2238,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2299,7 +2258,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2319,7 +2278,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2328,7 +2287,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
@@ -2339,7 +2298,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2348,7 +2307,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>18</v>
@@ -2359,7 +2318,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2368,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>18</v>
@@ -2379,7 +2338,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2388,7 +2347,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>18</v>
@@ -2399,7 +2358,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2408,18 +2367,21 @@
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2428,21 +2390,18 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2451,7 +2410,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>18</v>
@@ -2462,7 +2421,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2471,7 +2430,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>18</v>
@@ -2482,7 +2441,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2491,10 +2450,10 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2502,7 +2461,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2511,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>30</v>
@@ -2522,7 +2481,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2531,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>30</v>
@@ -2542,7 +2501,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2551,7 +2510,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>30</v>
@@ -2562,7 +2521,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2571,7 +2530,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>30</v>
@@ -2582,7 +2541,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2591,7 +2550,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>30</v>
@@ -2602,7 +2561,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2611,7 +2570,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>30</v>
@@ -2622,7 +2581,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2631,7 +2590,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>30</v>
@@ -2642,7 +2601,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2651,18 +2610,21 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2671,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>30</v>
@@ -2682,7 +2644,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2691,21 +2653,18 @@
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2714,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>30</v>
@@ -2725,7 +2684,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2734,10 +2693,10 @@
         <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2745,7 +2704,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2754,10 +2713,10 @@
         <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2765,7 +2724,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2774,7 +2733,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>31</v>
@@ -2785,7 +2744,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2794,7 +2753,7 @@
         <v>16</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>31</v>
@@ -2805,7 +2764,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2814,7 +2773,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>31</v>
@@ -2825,7 +2784,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2834,7 +2793,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>31</v>
@@ -2845,7 +2804,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2854,7 +2813,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>31</v>
@@ -2865,7 +2824,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2874,7 +2833,7 @@
         <v>16</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>31</v>
@@ -2885,7 +2844,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2894,18 +2853,21 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2914,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>31</v>
@@ -2925,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2934,7 +2896,7 @@
         <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>31</v>
@@ -2945,7 +2907,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2954,72 +2916,9 @@
         <v>16</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" t="s">
-        <v>216</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3145,10 +3044,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="F7" sqref="F7:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,7 +3085,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3226,7 +3125,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3246,7 +3145,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3266,7 +3165,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3278,6 +3177,39 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3288,10 +3220,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="F7" sqref="F7:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3329,7 +3261,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3369,7 +3301,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3389,7 +3321,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3409,7 +3341,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3421,6 +3353,39 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3431,10 +3396,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,7 +3434,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3479,6 +3444,14 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{32979013-C667-40F4-9B45-36A44D9BCA25}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53910D1-5320-412B-A0E4-CFBDDC268DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="7" windowHeight="14010" windowWidth="24525" xWindow="1680" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="2580"/>
+    <workbookView xWindow="2220" yWindow="2325" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="142">
   <si>
     <t>Result</t>
   </si>
@@ -231,219 +231,6 @@
     <t>Thu Jan 25 20:11:03 EST 2024</t>
   </si>
   <si>
-    <t>Thu Jan 25 20:11:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:11:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:11:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:12:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:12:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:12:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:13:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:13:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:13:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:14:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:14:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:15:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:15:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:15:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:16:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:16:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:16:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:17:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:17:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:17:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:18:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:18:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:18:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:18:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:19:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:19:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:19:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:20:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:20:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:20:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:21:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:21:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:21:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:22:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:22:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:22:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:23:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:23:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:24:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:24:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:24:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:24:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:25:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:25:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:25:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:26:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:26:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:26:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:27:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:27:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:28:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:28:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:28:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:29:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:29:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:29:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:30:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:30:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:30:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:30:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:31:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:31:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:32:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:32:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:32:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:33:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:33:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:33:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:34:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:34:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:34:50 EST 2024</t>
-  </si>
-  <si>
     <t>Thu Jan 25 20:35:10 EST 2024</t>
   </si>
   <si>
@@ -462,15 +249,6 @@
     <t>Thu Jan 25 20:37:09 EST 2024</t>
   </si>
   <si>
-    <t>Sat Jan 27 21:49:48 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Sat Jan 27 23:19:28 EST 2024</t>
   </si>
   <si>
@@ -676,13 +454,27 @@
   </si>
   <si>
     <t>Sat Jan 27 23:41:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 17:13:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 17:13:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 17:21:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 17:21:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 17:21:57 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,19 +523,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -760,10 +552,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -798,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -850,7 +642,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -961,21 +753,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -992,7 +784,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1044,15 +836,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -1060,15 +852,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,8 +1041,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1258,8 +1050,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
@@ -1267,12 +1059,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,7 +1092,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1317,7 +1109,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1334,7 +1126,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1351,7 +1143,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1371,7 +1163,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1391,7 +1183,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1408,7 +1200,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1425,7 +1217,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1442,7 +1234,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1459,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1479,7 +1271,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1499,7 +1291,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1516,7 +1308,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1533,7 +1325,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1550,7 +1342,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1570,7 +1362,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1587,7 +1379,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1604,7 +1396,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1617,7 +1409,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1625,8 +1417,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1634,15 +1426,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,7 +1599,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1815,23 +1607,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1862,7 +1654,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1882,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1905,7 +1697,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1928,7 +1720,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1951,7 +1743,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1974,7 +1766,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1994,7 +1786,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2017,7 +1809,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2040,7 +1832,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2063,7 +1855,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2086,7 +1878,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2106,7 +1898,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2129,7 +1921,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2152,7 +1944,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2175,7 +1967,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2198,7 +1990,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2218,7 +2010,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2238,7 +2030,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2258,7 +2050,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2278,7 +2070,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2298,7 +2090,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2318,7 +2110,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2338,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2358,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2381,7 +2173,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2401,7 +2193,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2421,7 +2213,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2441,7 +2233,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2461,7 +2253,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2481,7 +2273,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2501,7 +2293,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2521,7 +2313,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2541,7 +2333,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2561,7 +2353,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2581,7 +2373,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2601,7 +2393,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2624,7 +2416,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2644,7 +2436,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2664,7 +2456,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2684,7 +2476,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2704,7 +2496,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2724,7 +2516,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2744,7 +2536,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2764,7 +2556,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2784,7 +2576,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2804,7 +2596,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2824,7 +2616,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2844,7 +2636,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2867,7 +2659,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2887,7 +2679,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2907,7 +2699,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2923,7 +2715,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2931,8 +2723,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2940,15 +2732,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3035,7 +2827,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3043,21 +2835,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F9"/>
+      <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,7 +2877,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3125,7 +2917,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3145,7 +2937,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3165,7 +2957,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3181,6 +2973,15 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3192,6 +2993,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3203,6 +3007,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3214,26 +3021,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F9"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3261,7 +3068,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3301,7 +3108,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3321,7 +3128,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3341,7 +3148,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3356,60 +3163,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3434,7 +3208,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3447,6 +3221,15 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3455,6 +3238,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53910D1-5320-412B-A0E4-CFBDDC268DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B53910D1-5320-412B-A0E4-CFBDDC268DC9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2325" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="3" windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="2325"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="232">
   <si>
     <t>Result</t>
   </si>
@@ -469,12 +469,283 @@
   </si>
   <si>
     <t>Fri Feb 02 17:21:57 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:29:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:29:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:29:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:30:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:30:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:30:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:31:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:31:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:31:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:32:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:32:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:32:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:33:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:33:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:33:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:33:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:34:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:34:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:34:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:35:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:35:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:35:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:36:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:36:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:36:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:37:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:37:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:37:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:38:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:38:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:38:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:39:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:39:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:39:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:40:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:40:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:40:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:41:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:41:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:41:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:42:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:42:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:42:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:43:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:43:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:43:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:44:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:44:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:44:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:45:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:45:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:45:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:46:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:46:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:46:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:47:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:47:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:47:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:48:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:48:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:48:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:49:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:49:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:50:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:50:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:50:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:50:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:51:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:51:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:52:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:52:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:52:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:53:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:53:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:53:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:54:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:54:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:54:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:55:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:55:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:55:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:56:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:56:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:56:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:57:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:57:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:57:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:58:23 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,19 +794,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -552,10 +823,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -590,7 +861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -642,7 +913,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -753,21 +1024,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -784,7 +1055,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -836,15 +1107,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -852,15 +1123,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -917,7 +1188,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -940,7 +1211,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -966,7 +1237,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -992,7 +1263,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1018,7 +1289,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1041,8 +1312,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1050,8 +1321,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
@@ -1059,12 +1330,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,7 +1363,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1109,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1126,7 +1397,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1143,7 +1414,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1163,7 +1434,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1183,7 +1454,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1200,7 +1471,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1217,7 +1488,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1234,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1251,7 +1522,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1271,7 +1542,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1291,7 +1562,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1308,7 +1579,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1325,7 +1596,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1342,7 +1613,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1362,7 +1633,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1379,7 +1650,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1396,7 +1667,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1409,7 +1680,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1417,8 +1688,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1426,15 +1697,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1599,7 +1870,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1607,8 +1878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:XFD33"/>
@@ -1616,14 +1887,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1654,7 +1925,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1674,7 +1945,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1697,7 +1968,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1720,7 +1991,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1743,7 +2014,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1766,7 +2037,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1786,7 +2057,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1809,7 +2080,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1832,7 +2103,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1855,7 +2126,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1878,7 +2149,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1898,7 +2169,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1921,7 +2192,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1944,7 +2215,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1967,7 +2238,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1990,7 +2261,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2010,7 +2281,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2030,7 +2301,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2050,7 +2321,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2070,7 +2341,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2090,7 +2361,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2110,7 +2381,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2130,7 +2401,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2150,7 +2421,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2173,7 +2444,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2193,7 +2464,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2213,7 +2484,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2233,7 +2504,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2253,7 +2524,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2273,7 +2544,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2293,7 +2564,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2313,7 +2584,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2333,7 +2604,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2353,7 +2624,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2373,7 +2644,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2393,7 +2664,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2416,7 +2687,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2436,7 +2707,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2456,7 +2727,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2476,7 +2747,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2496,7 +2767,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2516,7 +2787,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2536,7 +2807,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2556,7 +2827,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2576,7 +2847,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2596,7 +2867,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2616,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2636,7 +2907,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2659,7 +2930,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2679,7 +2950,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2699,7 +2970,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2715,7 +2986,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2723,8 +2994,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2732,15 +3003,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2827,7 +3098,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2835,8 +3106,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C9"/>
@@ -2844,12 +3115,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,7 +3148,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2917,7 +3188,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2937,7 +3208,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2957,7 +3228,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2977,7 +3248,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2993,6 +3264,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3007,6 +3284,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
@@ -3021,13 +3304,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
@@ -3035,12 +3318,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3068,7 +3351,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3108,7 +3391,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3128,7 +3411,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3148,7 +3431,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3164,13 +3447,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3178,12 +3461,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3208,7 +3491,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3225,7 +3508,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3238,6 +3521,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B53910D1-5320-412B-A0E4-CFBDDC268DC9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775417E2-F389-4CD6-A1A3-E85C58153E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="2325"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="145">
   <si>
     <t>Result</t>
   </si>
@@ -213,539 +213,277 @@
     <t>Sales and Use Tax</t>
   </si>
   <si>
-    <t>Thu Jan 25 20:09:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:09:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:10:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:10:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:10:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:11:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:35:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:35:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:35:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:36:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:36:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 20:37:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:19:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:19:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:20:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:20:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:20:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:21:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:21:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:21:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:21:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:22:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:22:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:22:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:23:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:23:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:23:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:24:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:24:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:24:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:24:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:25:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:25:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:25:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:26:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:26:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:26:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:27:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:27:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:27:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:28:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:28:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:28:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:29:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:29:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:29:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:30:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:30:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:30:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:31:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:31:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:31:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:32:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:32:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:32:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:33:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:33:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:33:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:34:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:34:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:34:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:35:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:35:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:35:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:35:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:36:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:36:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:36:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:37:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:37:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:37:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:38:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:38:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:38:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:39:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:39:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:39:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:40:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:40:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:40:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 27 23:41:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 17:13:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 17:13:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 17:21:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 17:21:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 17:21:57 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:29:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:29:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:29:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:30:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:30:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:30:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:31:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:31:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:31:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:32:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:32:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:32:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:33:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:33:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:33:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:33:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:34:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:34:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:34:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:35:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:35:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:35:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:36:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:36:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:36:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:37:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:37:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:37:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:38:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:38:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:38:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:39:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:39:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:39:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:40:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:40:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:40:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:41:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:41:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:41:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:42:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:42:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:42:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:43:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:43:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:43:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:44:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:44:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:44:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:45:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:45:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:45:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:46:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:46:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:46:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:47:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:47:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:47:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:48:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:48:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:48:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:49:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:49:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:50:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:50:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:50:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:50:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:51:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:51:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:52:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:52:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:52:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:53:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:53:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:53:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:54:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:54:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:54:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:55:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:55:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:55:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:56:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:56:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:56:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:57:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:57:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:57:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:58:23 EST 2024</t>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:57:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:57:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:57:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:57:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:58:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:58:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:58:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:59:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:59:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:59:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:59:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:00:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:00:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:00:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:01:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:01:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:01:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:01:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:02:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:02:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:02:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:03:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:03:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:03:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:03:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:04:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:04:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:04:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:05:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:05:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:05:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:06:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:06:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:06:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:07:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:07:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:07:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:07:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:08:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:08:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:08:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:09:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:09:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:09:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:10:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:10:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:10:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:10:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:11:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:11:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:11:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:12:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:12:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:12:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:13:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:13:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:13:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:13:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:14:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:14:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:14:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:15:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:15:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:15:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:16:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:16:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:16:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:17:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:17:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:17:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:17:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:18:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:18:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:18:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:19:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:19:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:19:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:20:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:20:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:20:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:21:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:21:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:21:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:21:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:22:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:22:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:23:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 23:23:26 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,19 +532,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -823,10 +561,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -861,7 +599,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -913,7 +651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1024,21 +762,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1055,7 +793,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1107,15 +845,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -1123,15 +861,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1165,7 +903,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1188,7 +926,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1211,7 +949,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1237,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1263,7 +1001,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1289,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1312,8 +1050,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1321,8 +1059,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
@@ -1330,12 +1068,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,7 +1101,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1380,7 +1118,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1397,7 +1135,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1414,7 +1152,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1434,7 +1172,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1454,7 +1192,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1471,7 +1209,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1488,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1505,7 +1243,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1522,7 +1260,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1542,7 +1280,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1562,7 +1300,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1579,7 +1317,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1596,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1613,7 +1351,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1633,7 +1371,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1650,7 +1388,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1667,7 +1405,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1680,7 +1418,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1688,8 +1426,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1697,15 +1435,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1870,7 +1608,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1878,26 +1616,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1919,13 +1658,16 @@
       <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1940,12 +1682,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1963,12 +1705,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1986,12 +1728,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2009,12 +1751,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2032,12 +1774,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2052,12 +1794,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2075,12 +1817,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2098,12 +1840,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2121,12 +1863,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2144,12 +1886,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2164,12 +1906,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2187,12 +1929,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2210,12 +1952,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2233,12 +1975,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2256,12 +1998,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2273,15 +2015,18 @@
         <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2293,15 +2038,18 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2313,15 +2061,15 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2336,12 +2084,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2353,15 +2101,15 @@
         <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2373,15 +2121,18 @@
         <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2393,15 +2144,15 @@
         <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2413,15 +2164,15 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2433,18 +2184,18 @@
         <v>51</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2456,15 +2207,15 @@
         <v>52</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2479,12 +2230,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2496,15 +2247,18 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2516,15 +2270,18 @@
         <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2536,15 +2293,18 @@
         <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2556,15 +2316,15 @@
         <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2579,12 +2339,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2596,15 +2356,15 @@
         <v>49</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2616,15 +2376,18 @@
         <v>55</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2636,15 +2399,15 @@
         <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2656,15 +2419,15 @@
         <v>27</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2676,18 +2439,18 @@
         <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2699,15 +2462,15 @@
         <v>52</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2722,12 +2485,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2739,15 +2502,18 @@
         <v>28</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2759,15 +2525,18 @@
         <v>47</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2779,15 +2548,18 @@
         <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2799,15 +2571,15 @@
         <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2822,12 +2594,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2839,15 +2611,15 @@
         <v>49</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2859,15 +2631,18 @@
         <v>55</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2879,15 +2654,15 @@
         <v>50</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2899,15 +2674,15 @@
         <v>27</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2919,18 +2694,18 @@
         <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2942,15 +2717,15 @@
         <v>52</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2965,12 +2740,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2982,11 +2757,14 @@
         <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2994,8 +2772,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3003,15 +2781,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3098,7 +2876,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3106,21 +2884,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3148,7 +2926,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3188,7 +2966,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3208,7 +2986,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3228,7 +3006,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3248,7 +3026,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3260,7 +3038,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3280,7 +3058,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3288,7 +3066,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3300,17 +3078,17 @@
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
@@ -3318,12 +3096,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3351,7 +3129,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3391,7 +3169,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3411,7 +3189,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3431,7 +3209,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3447,13 +3225,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3461,12 +3239,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3491,7 +3269,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3508,7 +3286,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3521,6 +3299,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775417E2-F389-4CD6-A1A3-E85C58153E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A09501-3838-4F66-83DF-EDAF95EEC43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="-25725" yWindow="3285" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="145">
   <si>
     <t>Result</t>
   </si>
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,6 +2103,9 @@
       <c r="F21" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2166,6 +2169,9 @@
       <c r="F24" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="H24" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2189,6 +2195,9 @@
       <c r="G25" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2209,6 +2218,9 @@
       <c r="F26" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2227,7 +2239,7 @@
         <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2358,6 +2370,9 @@
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H33" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2421,6 +2436,9 @@
       <c r="F36" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H36" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2444,6 +2462,9 @@
       <c r="G37" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H37" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2464,6 +2485,9 @@
       <c r="F38" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="H38" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -2482,7 +2506,7 @@
         <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2613,6 +2637,9 @@
       <c r="F45" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H45" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -2676,6 +2703,9 @@
       <c r="F48" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H48" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -2699,6 +2729,9 @@
       <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H49" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -2719,6 +2752,9 @@
       <c r="F50" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H50" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -2737,7 +2773,7 @@
         <v>53</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2887,7 +2923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A09501-3838-4F66-83DF-EDAF95EEC43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{13A09501-3838-4F66-83DF-EDAF95EEC43F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-25725" yWindow="3285" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="3" windowHeight="14010" windowWidth="24525" xWindow="-25725" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="3285"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="198">
   <si>
     <t>Result</t>
   </si>
@@ -478,12 +478,172 @@
   </si>
   <si>
     <t>Sat Feb 17 23:23:26 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:10:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:10:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:10:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:11:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:11:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:11:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:12:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:12:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:12:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:12:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:13:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:13:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:13:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:14:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:14:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:14:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:15:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:15:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:15:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:16:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:16:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:16:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:17:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:17:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:17:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:18:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:18:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:18:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:18:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:19:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:19:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:19:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:20:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:20:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:20:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:21:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:21:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:21:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:22:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:22:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:22:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:23:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:23:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:23:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:23:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:24:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:24:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:24:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:25:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:25:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 01:25:47 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,19 +692,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -561,10 +721,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -599,7 +759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -651,7 +811,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -762,21 +922,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -793,7 +953,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -845,15 +1005,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -861,15 +1021,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1050,8 +1210,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1059,8 +1219,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
@@ -1068,12 +1228,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1418,7 +1578,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1426,8 +1586,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1435,15 +1595,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1608,7 +1768,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1616,8 +1776,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
@@ -1625,15 +1785,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,7 +1827,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1687,7 +1847,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1710,7 +1870,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1733,7 +1893,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1756,7 +1916,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1779,7 +1939,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1799,7 +1959,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1822,7 +1982,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1845,7 +2005,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1868,7 +2028,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1891,7 +2051,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1911,7 +2071,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1934,7 +2094,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1957,7 +2117,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1980,7 +2140,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2003,7 +2163,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2026,7 +2186,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2049,7 +2209,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2069,7 +2229,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2089,7 +2249,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2112,7 +2272,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2135,7 +2295,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2155,7 +2315,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2178,7 +2338,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2204,7 +2364,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2227,7 +2387,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2247,7 +2407,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2270,7 +2430,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2293,7 +2453,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2316,7 +2476,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2336,7 +2496,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2356,7 +2516,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2379,7 +2539,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2402,7 +2562,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2422,7 +2582,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2445,7 +2605,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2471,7 +2631,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2494,7 +2654,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2514,7 +2674,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2537,7 +2697,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2560,7 +2720,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2583,7 +2743,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2603,7 +2763,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2623,7 +2783,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2646,7 +2806,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2669,7 +2829,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2689,7 +2849,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2712,7 +2872,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2738,7 +2898,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2761,7 +2921,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2781,7 +2941,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2800,7 +2960,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2808,8 +2968,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2817,15 +2977,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2912,7 +3072,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2920,8 +3080,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -2929,12 +3089,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,13 +3278,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
@@ -3132,12 +3292,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3261,13 +3421,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3275,12 +3435,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3335,6 +3495,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{13A09501-3838-4F66-83DF-EDAF95EEC43F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CF4054-6BCA-4B4F-895D-04B498EB329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="14010" windowWidth="24525" xWindow="-25725" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="3285"/>
+    <workbookView xWindow="1485" yWindow="1965" windowWidth="24525" windowHeight="14010" activeTab="5" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="145">
   <si>
     <t>Result</t>
   </si>
@@ -216,434 +216,274 @@
     <t>CRN</t>
   </si>
   <si>
-    <t>Sat Feb 17 22:57:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:57:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:57:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:57:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:58:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:58:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:58:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:59:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:59:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:59:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:59:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:00:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:00:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:00:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:01:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:01:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:01:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:01:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:02:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:02:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:02:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:03:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:03:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:03:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:03:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:04:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:04:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:04:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:05:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:05:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:05:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:06:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:06:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:06:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:07:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:07:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:07:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:07:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:08:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:08:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:08:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:09:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:09:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:09:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:10:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:10:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:10:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:10:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:11:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:11:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:11:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:12:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:12:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:12:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:13:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:13:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:13:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:13:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:14:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:14:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:14:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:15:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:15:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:15:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:16:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:16:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:16:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:17:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:17:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:17:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:17:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:18:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:18:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:18:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:19:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:19:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:19:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:20:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:20:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:20:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:21:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:21:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:21:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:21:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:22:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:22:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:23:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 23:23:26 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:10:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:10:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:10:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:11:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:11:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:11:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:12:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:12:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:12:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:12:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:13:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:13:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:13:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:14:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:14:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:14:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:15:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:15:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:15:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:16:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:16:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:16:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:17:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:17:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:17:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:18:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:18:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:18:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:18:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:19:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:19:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:19:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:20:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:20:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:20:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:21:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:21:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:21:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:22:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:22:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:22:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:23:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:23:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:23:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:23:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:24:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:24:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:24:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:25:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:25:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 01:25:47 EST 2024</t>
+    <t>Fri Mar 08 01:18:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:19:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:19:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:20:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:21:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:22:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:23:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:23:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:24:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:25:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:25:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:26:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:27:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:27:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:28:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:29:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:29:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:30:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:31:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:32:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:32:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:33:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:34:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:35:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:36:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:36:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:37:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:37:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:38:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:39:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:40:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:41:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:42:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:43:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:43:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:44:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:44:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:45:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:46:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:47:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:48:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:48:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:49:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:50:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:51:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:52:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:52:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:53:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:53:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:54:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:55:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:55:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:56:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:57:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:58:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:59:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:00:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:01:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:02:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:02:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:03:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:04:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:05:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:05:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:06:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:07:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:08:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:09:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:09:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:10:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:11:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:12:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:13:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:14:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:15:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:16:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:17:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:17:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:18:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:19:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:19:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:20:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:21:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:22:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:23:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:23:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:24:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 02:25:36 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -692,19 +532,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -721,10 +561,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -759,7 +599,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -811,7 +651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -922,21 +762,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -953,7 +793,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1005,15 +845,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -1021,15 +861,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1210,8 +1050,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1219,8 +1059,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
@@ -1228,12 +1068,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1578,7 +1418,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1586,8 +1426,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1595,15 +1435,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1768,7 +1608,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1776,24 +1616,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1827,7 +1667,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1847,7 +1687,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1870,7 +1710,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1893,7 +1733,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1916,7 +1756,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1939,7 +1779,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1959,7 +1799,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1982,7 +1822,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2005,7 +1845,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2028,7 +1868,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2051,7 +1891,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2071,7 +1911,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2094,7 +1934,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2117,7 +1957,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2140,7 +1980,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2163,7 +2003,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2186,7 +2026,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2209,7 +2049,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2229,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2249,7 +2089,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2272,7 +2112,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2295,7 +2135,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2315,7 +2155,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2338,7 +2178,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2364,7 +2204,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2387,7 +2227,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2407,7 +2247,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2430,7 +2270,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2453,7 +2293,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2476,7 +2316,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2496,7 +2336,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2516,7 +2356,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2539,7 +2379,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2562,7 +2402,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2582,7 +2422,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2605,7 +2445,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2631,7 +2471,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2654,7 +2494,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2674,7 +2514,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2697,7 +2537,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2720,7 +2560,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2743,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2763,7 +2603,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2783,7 +2623,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2806,7 +2646,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2829,7 +2669,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2849,7 +2689,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2872,7 +2712,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2898,7 +2738,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2921,7 +2761,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2941,7 +2781,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2960,7 +2800,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2968,8 +2808,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2977,15 +2817,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +2912,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3080,21 +2920,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3234,7 +3074,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,7 +3094,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3274,17 +3114,17 @@
         <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
@@ -3292,12 +3132,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3421,13 +3261,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3435,12 +3275,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3495,6 +3335,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CF4054-6BCA-4B4F-895D-04B498EB329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8821504A-02B4-46F1-8E3D-5CB1F8E8E9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1965" windowWidth="24525" windowHeight="14010" activeTab="5" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="30810" yWindow="990" windowWidth="24525" windowHeight="14010" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="144">
   <si>
     <t>Result</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Wed Nov 01 16:01:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>DONOTRUN</t>
   </si>
   <si>
     <t>Thu Dec 07 23:00:27 EST 2023</t>
@@ -903,7 +900,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -915,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -926,7 +923,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -938,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -949,7 +946,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -961,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -975,7 +972,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -987,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1001,7 +998,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1013,7 +1010,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -1027,7 +1024,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1039,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -1101,7 +1098,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1118,7 +1115,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1135,7 +1132,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1152,7 +1149,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1172,7 +1169,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1192,7 +1189,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1209,7 +1206,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1226,7 +1223,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1243,7 +1240,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1260,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1280,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1300,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1309,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,7 +1314,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1326,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,7 +1331,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1343,7 +1340,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,7 +1348,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1360,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>32</v>
@@ -1371,7 +1368,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1380,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,7 +1385,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1397,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,7 +1402,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1414,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1427,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1477,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1489,7 +1486,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
@@ -1503,7 +1500,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -1512,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1523,7 +1520,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1532,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -1546,7 +1543,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -1555,7 +1552,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>32</v>
@@ -1569,7 +1566,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -1578,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>32</v>
@@ -1592,7 +1589,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -1601,13 +1598,14 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
@@ -1619,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
@@ -1659,7 +1657,7 @@
         <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1687,7 +1685,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1710,7 +1708,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1733,7 +1731,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1756,7 +1754,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1779,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1799,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1822,7 +1820,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1845,7 +1843,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1868,7 +1866,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1891,7 +1889,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1911,7 +1909,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1934,7 +1932,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1957,7 +1955,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1980,7 +1978,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2003,7 +2001,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2012,10 +2010,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
@@ -2026,7 +2024,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2038,7 +2036,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
@@ -2049,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2061,7 +2059,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2069,7 +2067,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2089,7 +2087,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2098,10 +2096,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>32</v>
@@ -2112,7 +2110,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2121,10 +2119,10 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>32</v>
@@ -2135,7 +2133,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2144,10 +2142,10 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2155,7 +2153,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2167,7 +2165,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>32</v>
@@ -2178,7 +2176,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2187,10 +2185,10 @@
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -2204,7 +2202,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2213,10 +2211,10 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
@@ -2227,7 +2225,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2236,10 +2234,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2247,7 +2245,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2259,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -2270,7 +2268,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2279,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -2293,7 +2291,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2316,7 +2314,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2336,7 +2334,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2356,7 +2354,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2365,7 +2363,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>18</v>
@@ -2379,7 +2377,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2388,7 +2386,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>18</v>
@@ -2402,7 +2400,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2411,7 +2409,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
@@ -2422,7 +2420,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2445,7 +2443,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2454,7 +2452,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>18</v>
@@ -2471,7 +2469,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2480,10 +2478,10 @@
         <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -2494,7 +2492,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2503,7 +2501,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>18</v>
@@ -2514,7 +2512,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2537,7 +2535,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2546,7 +2544,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>30</v>
@@ -2560,7 +2558,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2583,7 +2581,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2603,7 +2601,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2623,7 +2621,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2632,7 +2630,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>30</v>
@@ -2646,7 +2644,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2655,7 +2653,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>30</v>
@@ -2669,7 +2667,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2678,7 +2676,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>30</v>
@@ -2689,7 +2687,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2712,7 +2710,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2721,7 +2719,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>30</v>
@@ -2738,7 +2736,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2747,7 +2745,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>30</v>
@@ -2761,7 +2759,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2770,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>30</v>
@@ -2781,7 +2779,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2866,7 +2864,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -2923,7 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2962,7 +2960,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2974,7 +2972,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,10 +2980,10 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2994,7 +2992,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3002,7 +3000,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3022,7 +3020,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3042,7 +3040,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3062,7 +3060,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3071,7 +3069,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
@@ -3082,7 +3080,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3091,7 +3089,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>30</v>
@@ -3102,7 +3100,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3111,7 +3109,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>31</v>
@@ -3127,7 +3125,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,7 +3163,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3177,7 +3175,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3185,10 +3183,10 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -3197,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,7 +3203,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3225,7 +3223,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3245,7 +3243,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3269,7 +3267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3305,7 +3303,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3322,7 +3320,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3331,7 +3329,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8821504A-02B4-46F1-8E3D-5CB1F8E8E9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EDD60107-1206-4D6A-A72A-542C0270DA33}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="990" windowWidth="24525" windowHeight="14010" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="6" windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="615"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="154">
   <si>
     <t>Result</t>
   </si>
@@ -475,12 +475,43 @@
   </si>
   <si>
     <t>Fri Mar 08 02:25:36 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:09:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:09:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:09:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:10:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:10:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:10:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:11:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:11:37 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,19 +560,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -558,10 +589,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -596,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -648,7 +679,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -759,21 +790,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -790,7 +821,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -842,15 +873,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -858,15 +889,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1047,8 +1078,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1056,8 +1087,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
@@ -1065,12 +1096,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,7 +1446,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1423,8 +1454,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
@@ -1432,15 +1463,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1497,7 +1528,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1517,7 +1548,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1540,7 +1571,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1563,7 +1594,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1586,7 +1617,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1606,7 +1637,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1614,8 +1645,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
@@ -1623,15 +1654,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2798,7 +2829,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2806,8 +2837,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2815,15 +2846,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2910,7 +2941,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2918,21 +2949,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2962,9 +2993,6 @@
       <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2980,7 +3008,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3002,9 +3030,6 @@
       <c r="B4" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3022,9 +3047,6 @@
       <c r="B5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3042,9 +3064,6 @@
       <c r="B6" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3062,9 +3081,6 @@
       <c r="B7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3082,9 +3098,6 @@
       <c r="B8" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3102,9 +3115,6 @@
       <c r="B9" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3116,156 +3126,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3273,12 +3140,143 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3333,6 +3331,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EDD60107-1206-4D6A-A72A-542C0270DA33}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EA93DE-25BF-40F0-9864-1CBE320E6B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="6" windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="615"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="145">
   <si>
     <t>Result</t>
   </si>
@@ -153,30 +153,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:59:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:00:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:00:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:00:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:01:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 16:01:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 23:00:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 23:02:01 EST 2023</t>
-  </si>
-  <si>
     <t>DoNotRun</t>
   </si>
   <si>
@@ -477,12 +453,6 @@
     <t>Fri Mar 08 02:25:36 EST 2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Wed Mar 20 23:09:09 EDT 2024</t>
   </si>
   <si>
@@ -505,13 +475,15 @@
   </si>
   <si>
     <t>Wed Mar 20 23:11:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Existing Liability with Notice/Invoice Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,19 +532,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -589,10 +561,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -627,7 +599,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -679,7 +651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -790,21 +762,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -821,7 +793,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -873,15 +845,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -889,15 +861,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -931,7 +903,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -943,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -954,7 +926,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -966,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -977,7 +949,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -989,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -1003,7 +975,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1015,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1029,7 +1001,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1041,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -1055,7 +1027,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1067,7 +1039,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -1078,8 +1050,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1087,24 +1059,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="52.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,70 +1095,73 @@
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1195,18 +1170,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1215,86 +1190,98 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1303,18 +1290,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1323,130 +1310,142 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1454,8 +1453,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
@@ -1463,15 +1462,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,7 +1504,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1528,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1548,7 +1547,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1571,7 +1570,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1594,7 +1593,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1617,7 +1616,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1637,7 +1636,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1645,8 +1644,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
@@ -1654,15 +1653,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1688,7 +1687,7 @@
         <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1696,7 +1695,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1716,7 +1715,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1739,7 +1738,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1762,7 +1761,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1785,7 +1784,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1808,7 +1807,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1828,7 +1827,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1851,7 +1850,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1874,7 +1873,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1897,7 +1896,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1920,7 +1919,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1940,7 +1939,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1963,7 +1962,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1986,7 +1985,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2009,7 +2008,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2032,7 +2031,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2041,10 +2040,10 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
@@ -2055,7 +2054,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2067,7 +2066,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
@@ -2078,7 +2077,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2090,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2098,7 +2097,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2118,7 +2117,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2127,10 +2126,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>32</v>
@@ -2141,7 +2140,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2150,10 +2149,10 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>32</v>
@@ -2164,7 +2163,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2173,10 +2172,10 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2184,7 +2183,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2196,7 +2195,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>32</v>
@@ -2207,7 +2206,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2216,10 +2215,10 @@
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -2233,7 +2232,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2242,10 +2241,10 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
@@ -2256,7 +2255,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2265,10 +2264,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2276,7 +2275,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2288,7 +2287,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -2299,7 +2298,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2308,7 +2307,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -2322,7 +2321,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2345,7 +2344,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2365,7 +2364,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2385,7 +2384,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2394,7 +2393,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>18</v>
@@ -2408,7 +2407,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2417,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>18</v>
@@ -2431,7 +2430,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2440,7 +2439,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
@@ -2451,7 +2450,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2474,7 +2473,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2483,7 +2482,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>18</v>
@@ -2500,7 +2499,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2509,10 +2508,10 @@
         <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -2523,7 +2522,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2532,7 +2531,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>18</v>
@@ -2543,7 +2542,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2566,7 +2565,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2575,7 +2574,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>30</v>
@@ -2589,7 +2588,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2612,7 +2611,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2632,7 +2631,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2652,7 +2651,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2661,7 +2660,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>30</v>
@@ -2675,7 +2674,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2684,7 +2683,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>30</v>
@@ -2698,7 +2697,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2707,7 +2706,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>30</v>
@@ -2718,7 +2717,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2741,7 +2740,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2750,7 +2749,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>30</v>
@@ -2767,7 +2766,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2776,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>30</v>
@@ -2790,7 +2789,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2799,7 +2798,7 @@
         <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>30</v>
@@ -2810,7 +2809,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2829,7 +2828,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2837,8 +2836,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2846,15 +2845,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2895,7 +2894,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -2941,7 +2940,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2949,21 +2948,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,7 +2990,10 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -3000,7 +3002,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3008,7 +3010,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3028,7 +3030,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -3045,7 +3050,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -3062,7 +3070,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -3079,13 +3090,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
@@ -3096,13 +3110,16 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>30</v>
@@ -3113,39 +3130,42 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3173,7 +3193,10 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -3182,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3190,7 +3213,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3210,7 +3233,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>133</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -3227,7 +3253,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -3244,7 +3273,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -3257,26 +3289,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3301,13 +3333,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -3318,19 +3350,19 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EA93DE-25BF-40F0-9864-1CBE320E6B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D39386F-800B-4DBA-9D31-AC63C391672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="146">
   <si>
     <t>Result</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>Existing Liability with Notice/Invoice Number</t>
+  </si>
+  <si>
+    <t>MFLicNum</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,10 +1664,11 @@
     <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
     <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,8 +1693,11 @@
       <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1710,7 +1717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1756,7 +1763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1779,7 +1786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1802,7 +1809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1822,7 +1829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1845,7 +1852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1891,7 +1898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1914,7 +1921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1934,7 +1941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1980,7 +1987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2003,7 +2010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2026,7 +2033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2049,7 +2056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2072,7 +2079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2092,7 +2099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2112,7 +2119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2131,11 +2138,11 @@
       <c r="F21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2158,7 +2165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2178,7 +2185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2201,7 +2208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2227,7 +2234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2250,7 +2257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +2277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2316,7 +2323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2339,7 +2346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2359,7 +2366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2398,11 +2405,11 @@
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2425,7 +2432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2445,7 +2452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2468,7 +2475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2494,7 +2501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2517,7 +2524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2537,7 +2544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -2560,7 +2567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -2583,7 +2590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2606,7 +2613,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2626,7 +2633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -2646,7 +2653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2665,11 +2672,11 @@
       <c r="F45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2712,7 +2719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -3297,7 +3304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D39386F-800B-4DBA-9D31-AC63C391672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053A5364-0394-45EC-AF35-62027B116266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="146">
   <si>
     <t>Result</t>
   </si>
@@ -189,298 +189,298 @@
     <t>CRN</t>
   </si>
   <si>
-    <t>Fri Mar 08 01:18:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:19:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:19:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:20:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:21:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:22:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:23:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:23:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:24:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:25:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:25:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:26:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:27:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:27:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:28:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:29:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:29:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:30:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:31:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:32:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:32:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:33:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:34:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:35:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:36:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:36:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:37:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:37:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:38:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:39:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:40:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:41:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:42:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:43:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:43:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:44:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:44:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:45:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:46:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:47:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:48:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:48:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:49:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:50:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:51:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:52:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:52:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:53:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:53:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:54:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:55:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:55:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:56:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:57:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:58:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:59:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:00:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:01:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:02:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:02:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:03:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:04:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:05:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:05:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:06:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:07:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:08:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:09:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:09:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:10:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:11:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:12:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:13:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:14:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:15:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:16:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:17:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:17:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:18:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:19:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:19:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:20:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:21:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:22:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:23:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:23:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:24:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 02:25:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:09:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:09:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:09:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:10:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:10:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:10:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:11:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:11:37 EDT 2024</t>
-  </si>
-  <si>
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
     <t>MFLicNum</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:32:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:33:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:33:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:33:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:34:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:34:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:34:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:34:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:35:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:35:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:35:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:36:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:36:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:36:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:36:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:37:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:37:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:37:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:38:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:38:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:38:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:39:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:39:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:39:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:39:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:40:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:40:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:40:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:41:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:41:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:41:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:41:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:42:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:42:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:42:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:43:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:43:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:43:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:43:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:44:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:44:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:44:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:45:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:45:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:45:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:46:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:46:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:46:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:47:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:47:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:47:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:47:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:48:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:48:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:48:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:49:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:49:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:49:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:50:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:50:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:50:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:51:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:51:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:51:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:51:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:52:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:52:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:52:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:53:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:53:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:53:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:54:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:54:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:54:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:55:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:55:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:55:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:56:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:56:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:56:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:56:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:57:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:57:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:57:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:58:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:58:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:58:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:59:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:59:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:59:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 20:59:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 21:00:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 21:00:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 21:01:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 21:01:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 21:01:57 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -929,7 +929,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -952,7 +952,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -978,7 +978,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1004,7 +1004,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1030,7 +1030,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,13 +1107,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
@@ -1124,13 +1124,13 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1141,13 +1141,13 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1158,13 +1158,13 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1178,13 +1178,13 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1198,13 +1198,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
@@ -1218,13 +1218,13 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1238,13 +1238,13 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1258,13 +1258,13 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -1278,13 +1278,13 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1298,13 +1298,13 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1318,13 +1318,13 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>38</v>
@@ -1338,33 +1338,30 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>41</v>
@@ -1375,13 +1372,13 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>42</v>
@@ -1398,13 +1395,13 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
@@ -1418,13 +1415,13 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>44</v>
@@ -1435,13 +1432,13 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>45</v>
@@ -1507,7 +1504,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1530,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1550,7 +1547,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1573,7 +1570,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1596,7 +1593,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1619,7 +1616,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1650,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -1694,7 +1691,7 @@
         <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1702,7 +1699,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1722,7 +1719,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1745,7 +1742,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1768,7 +1765,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1791,7 +1788,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1814,7 +1811,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1834,7 +1831,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1857,7 +1854,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1880,7 +1877,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1903,7 +1900,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1926,7 +1923,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1946,7 +1943,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1969,7 +1966,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1992,7 +1989,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2015,7 +2012,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2038,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2061,7 +2058,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2084,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2104,7 +2101,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2124,7 +2121,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2147,7 +2144,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2170,7 +2167,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2190,7 +2187,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2213,7 +2210,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2239,7 +2236,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2262,7 +2259,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2282,7 +2279,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2305,7 +2302,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2328,7 +2325,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2351,7 +2348,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2371,7 +2368,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2391,7 +2388,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2414,7 +2411,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2437,7 +2434,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2457,7 +2454,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2480,7 +2477,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2506,7 +2503,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2529,7 +2526,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2549,7 +2546,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2572,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2595,7 +2592,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2618,7 +2615,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2638,7 +2635,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2658,7 +2655,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2681,7 +2678,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2704,7 +2701,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2724,7 +2721,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2747,7 +2744,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2773,7 +2770,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2796,7 +2793,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2816,7 +2813,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2997,7 +2994,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3017,7 +3014,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3037,7 +3034,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3057,7 +3054,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3077,7 +3074,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3097,7 +3094,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3117,7 +3114,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3137,7 +3134,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3200,7 +3197,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3220,7 +3217,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3240,7 +3237,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3260,7 +3257,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3280,7 +3277,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3340,13 +3337,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -3357,13 +3354,13 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>39</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053A5364-0394-45EC-AF35-62027B116266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99B03BB-6E2E-4463-BF58-5965D90AABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="2820" yWindow="885" windowWidth="25710" windowHeight="12690" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="146">
   <si>
     <t>Result</t>
   </si>
@@ -195,292 +195,292 @@
     <t>MFLicNum</t>
   </si>
   <si>
-    <t>Mon Apr 08 20:32:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:33:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:33:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:33:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:34:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:34:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:34:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:34:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:35:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:35:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:35:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:36:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:36:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:36:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:36:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:37:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:37:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:37:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:38:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:38:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:38:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:39:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:39:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:39:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:39:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:40:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:40:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:40:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:41:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:41:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:41:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:41:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:42:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:42:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:42:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:43:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:43:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:43:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:43:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:44:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:44:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:44:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:45:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:45:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:45:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:46:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:46:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:46:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:47:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:47:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:47:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:47:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:48:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:48:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:48:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:49:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:49:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:49:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:50:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:50:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:50:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:51:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:51:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:51:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:51:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:52:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:52:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:52:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:53:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:53:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:53:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:54:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:54:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:54:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:55:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:55:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:55:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:56:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:56:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:56:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:56:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:57:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:57:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:57:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:58:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:58:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:58:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:59:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:59:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:59:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 20:59:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 21:00:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 21:00:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 21:01:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 21:01:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 21:01:57 EDT 2024</t>
+    <t>Sat Oct 12 20:52:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:52:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:52:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:53:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:53:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:53:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:54:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:54:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:54:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:55:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:55:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:55:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:56:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:56:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:56:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:57:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:57:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:57:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:58:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:58:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:58:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:59:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:59:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 20:59:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:00:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:00:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:00:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:01:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:01:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:01:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:01:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:02:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:02:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:02:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:03:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:03:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:03:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:04:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:04:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:04:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:05:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:05:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:05:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:06:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:06:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:06:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:07:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:07:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:07:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:07:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:08:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:08:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:08:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:09:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:09:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:09:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:10:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:10:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:10:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:11:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:11:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:11:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:12:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:12:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:12:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:13:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:13:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:13:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:14:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:14:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:14:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:15:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:15:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:15:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:16:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:16:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:16:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:17:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:17:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:17:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:18:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:18:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:18:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:19:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:19:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:19:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:20:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:20:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:20:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:20:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:21:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:21:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:22:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:22:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 21:22:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 14 22:46:29 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -560,9 +560,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,7 +600,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -706,7 +706,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -848,7 +848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1063,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,10 +1076,12 @@
     <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
     <col min="4" max="4" width="52.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,8 +1103,11 @@
       <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1173,7 +1178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1193,7 +1198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1213,7 +1218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1273,7 +1278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1293,7 +1298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1333,12 +1338,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1349,13 +1354,16 @@
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1367,12 +1375,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1395,7 +1403,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1415,7 +1423,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1432,7 +1440,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1504,7 +1512,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1527,7 +1535,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1547,7 +1555,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1570,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1593,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1616,7 +1624,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1647,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1707,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1719,7 +1727,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1742,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1765,7 +1773,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1788,7 +1796,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1811,7 +1819,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1831,7 +1839,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1854,7 +1862,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1877,7 +1885,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1900,7 +1908,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1923,7 +1931,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1943,7 +1951,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1966,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1989,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2012,7 +2020,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2035,7 +2043,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2058,7 +2066,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2081,7 +2089,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2101,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2121,7 +2129,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2144,7 +2152,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2167,7 +2175,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2187,7 +2195,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2210,7 +2218,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2236,7 +2244,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2259,7 +2267,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2279,7 +2287,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2302,7 +2310,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2325,7 +2333,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2348,7 +2356,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2368,7 +2376,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2388,7 +2396,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2411,7 +2419,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2434,7 +2442,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2454,7 +2462,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2477,7 +2485,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2503,7 +2511,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2526,7 +2534,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2546,7 +2554,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2569,7 +2577,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2592,7 +2600,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2615,7 +2623,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2635,7 +2643,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2655,7 +2663,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2678,7 +2686,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2701,7 +2709,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2721,7 +2729,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2744,7 +2752,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2770,7 +2778,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2793,7 +2801,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2813,7 +2821,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2994,7 +3002,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3014,7 +3022,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3034,7 +3042,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3054,7 +3062,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3074,7 +3082,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3094,7 +3102,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3114,7 +3122,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3134,7 +3142,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3197,7 +3205,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3217,7 +3225,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3237,7 +3245,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3257,7 +3265,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3277,7 +3285,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3337,7 +3345,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3354,7 +3362,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99B03BB-6E2E-4463-BF58-5965D90AABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858D8394-4B6F-4F27-A94E-BC51E7933165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="885" windowWidth="25710" windowHeight="12690" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="32100" yWindow="1980" windowWidth="25710" windowHeight="12690" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
     <t>Sat Oct 12 21:22:59 EDT 2024</t>
   </si>
   <si>
-    <t>Mon Oct 14 22:46:29 EDT 2024</t>
+    <t>Wed Oct 16 20:04:08 EDT 2024</t>
   </si>
 </sst>
 </file>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858D8394-4B6F-4F27-A94E-BC51E7933165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F06622A-DFBE-4000-9057-201E0BE71C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32100" yWindow="1980" windowWidth="25710" windowHeight="12690" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="2535" yWindow="2925" windowWidth="25710" windowHeight="12690" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -195,292 +195,292 @@
     <t>MFLicNum</t>
   </si>
   <si>
-    <t>Sat Oct 12 20:52:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:52:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:52:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:53:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:53:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:53:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:54:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:54:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:54:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:55:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:55:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:55:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:56:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:56:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:56:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:57:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:57:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:57:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:58:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:58:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:58:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:59:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:59:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 20:59:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:00:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:00:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:00:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:01:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:01:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:01:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:01:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:02:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:02:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:02:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:03:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:03:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:03:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:04:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:04:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:04:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:05:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:05:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:05:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:06:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:06:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:06:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:07:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:07:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:07:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:07:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:08:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:08:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:08:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:09:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:09:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:09:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:10:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:10:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:10:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:11:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:11:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:11:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:12:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:12:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:12:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:13:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:13:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:13:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:14:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:14:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:14:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:15:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:15:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:15:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:16:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:16:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:16:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:17:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:17:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:17:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:18:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:18:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:18:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:19:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:19:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:19:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:20:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:20:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:20:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:20:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:21:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:21:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:22:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:22:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 21:22:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 16 20:04:08 EDT 2024</t>
+    <t>Fri Oct 25 16:00:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:00:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:00:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:00:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:01:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:01:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:01:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:02:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:02:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:02:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:03:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:03:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:03:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:04:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:04:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:04:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:04:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:05:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:06:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:06:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:06:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:07:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:07:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:07:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:08:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:08:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:08:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:08:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:09:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:09:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:09:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:10:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:10:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:10:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:11:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:11:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:11:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:12:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:12:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:12:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:12:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:13:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:13:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:13:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:14:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:14:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:14:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:15:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:15:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:15:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:16:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:16:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:16:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:17:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:17:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:17:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:18:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:18:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:18:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:19:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:19:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:19:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:20:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:20:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:20:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:21:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:21:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:21:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:22:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:22:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:22:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:23:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:23:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:23:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:24:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:24:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:24:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:25:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:25:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:25:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:26:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:26:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:26:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:26:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:27:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:27:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:27:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:28:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:28:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:28:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:29:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:29:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:30:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 16:30:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 26 21:25:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 26 21:25:52 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1363,7 +1363,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1380,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1403,7 +1403,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1423,7 +1423,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1440,7 +1440,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1512,7 +1512,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1535,7 +1535,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1555,7 +1555,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1578,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1601,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1624,7 +1624,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1707,7 +1707,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1727,7 +1727,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1750,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1773,7 +1773,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1796,7 +1796,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1819,7 +1819,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1839,7 +1839,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1862,7 +1862,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1885,7 +1885,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1908,7 +1908,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1931,7 +1931,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1951,7 +1951,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1974,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1997,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2020,7 +2020,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2043,7 +2043,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2066,7 +2066,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2089,7 +2089,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2109,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2129,7 +2129,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2152,7 +2152,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2175,7 +2175,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2195,7 +2195,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2218,7 +2218,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2244,7 +2244,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2267,7 +2267,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2287,7 +2287,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2310,7 +2310,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2333,7 +2333,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2356,7 +2356,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2376,7 +2376,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2396,7 +2396,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2419,7 +2419,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2442,7 +2442,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2462,7 +2462,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2485,7 +2485,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2511,7 +2511,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2534,7 +2534,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2554,7 +2554,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2577,7 +2577,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2600,7 +2600,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2623,7 +2623,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2643,7 +2643,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2663,7 +2663,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2686,7 +2686,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2709,7 +2709,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2729,7 +2729,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2752,7 +2752,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2778,7 +2778,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2801,7 +2801,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2821,7 +2821,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3002,7 +3002,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3022,7 +3022,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3042,7 +3042,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3062,7 +3062,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3082,7 +3082,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3102,7 +3102,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3122,7 +3122,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3142,7 +3142,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3205,7 +3205,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3225,7 +3225,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3245,7 +3245,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3265,7 +3265,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3285,7 +3285,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3345,7 +3345,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3362,7 +3362,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F06622A-DFBE-4000-9057-201E0BE71C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3409E441-4DFF-4CAC-BC9C-79295FC62AB0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="2925" windowWidth="25710" windowHeight="12690" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="5" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="172">
   <si>
     <t>Result</t>
   </si>
@@ -195,298 +195,377 @@
     <t>MFLicNum</t>
   </si>
   <si>
-    <t>Fri Oct 25 16:00:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:00:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:00:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:00:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:01:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:01:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:01:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:02:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:02:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:02:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:03:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:03:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:03:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:04:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:04:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:04:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:04:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:05:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:06:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:06:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:06:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:07:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:07:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:07:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:08:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:08:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:08:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:08:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:09:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:09:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:09:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:10:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:10:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:10:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:11:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:11:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:11:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:12:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:12:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:12:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:12:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:13:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:13:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:13:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:14:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:14:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:14:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:15:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:15:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:15:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:16:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:16:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:16:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:17:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:17:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:17:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:18:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:18:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:18:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:19:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:19:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:19:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:20:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:20:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:20:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:21:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:21:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:21:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:22:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:22:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:22:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:23:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:23:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:23:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:24:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:24:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:24:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:25:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:25:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:25:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:26:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:26:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:26:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:26:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:27:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:27:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:27:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:28:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:28:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:28:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:29:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:29:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:30:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 16:30:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 26 21:25:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 26 21:25:52 EDT 2024</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:02:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:02:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:03:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:03:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:03:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:04:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:04:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:05:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:05:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:05:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:06:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:06:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:06:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:07:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:07:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:07:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:08:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:08:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:08:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:09:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:09:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:09:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:10:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:10:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:10:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:11:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:11:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:11:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:12:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:12:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:12:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:13:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:13:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:14:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:14:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:14:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:15:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:15:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:15:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:16:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:16:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:16:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:17:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:17:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:17:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:18:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:18:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:18:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:19:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:19:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:20:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:20:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:20:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:21:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:21:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:21:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:22:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:22:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:23:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:23:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:23:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:24:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:24:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:24:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:25:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:25:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:25:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:26:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:26:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:27:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:27:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:27:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:28:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:28:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:28:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:29:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:29:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:29:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:30:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:30:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:31:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:31:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:31:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:32:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:32:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:32:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:33:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:33:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:33:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:34:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:34:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:34:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:35:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:35:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:36:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 19:49:01 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:06:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:06:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:06:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:07:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:07:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:07:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:08:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:08:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:09:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:09:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:09:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:10:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:10:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:11:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:11:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:11:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:12:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:12:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:12:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:13:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:13:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:14:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:14:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:15:23 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,19 +614,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -564,10 +643,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -602,7 +681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -654,7 +733,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -765,21 +844,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -796,7 +875,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -848,15 +927,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -864,15 +943,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -906,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -929,7 +1008,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -952,7 +1031,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -978,7 +1057,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1004,7 +1083,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1030,7 +1109,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1053,8 +1132,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1062,23 +1141,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="52.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="52.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1112,7 +1191,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1129,7 +1208,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1146,7 +1225,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1163,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1183,7 +1262,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1203,7 +1282,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1223,7 +1302,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1243,7 +1322,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1263,7 +1342,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1283,7 +1362,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1303,7 +1382,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1323,7 +1402,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1343,7 +1422,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1363,7 +1442,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1380,7 +1459,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1403,7 +1482,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1423,7 +1502,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1440,7 +1519,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1453,7 +1532,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1461,8 +1540,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
@@ -1470,15 +1549,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1512,7 +1591,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1535,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1555,7 +1634,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1578,7 +1657,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1601,7 +1680,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1624,7 +1703,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1644,7 +1723,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1652,8 +1731,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
@@ -1661,16 +1740,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1707,7 +1786,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1727,7 +1806,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1750,7 +1829,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1773,7 +1852,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1796,7 +1875,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1819,7 +1898,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1839,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1862,7 +1941,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1885,7 +1964,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1908,7 +1987,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1931,7 +2010,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1951,7 +2030,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1974,7 +2053,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1997,7 +2076,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2020,7 +2099,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2043,7 +2122,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2066,7 +2145,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2089,7 +2168,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2109,7 +2188,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2129,7 +2208,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2152,7 +2231,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2175,7 +2254,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2195,7 +2274,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2218,7 +2297,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2244,7 +2323,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2267,7 +2346,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2287,7 +2366,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2310,7 +2389,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2333,7 +2412,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2356,7 +2435,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2376,7 +2455,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2396,7 +2475,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2419,7 +2498,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2442,7 +2521,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2462,7 +2541,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2485,7 +2564,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2511,7 +2590,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2534,7 +2613,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2554,7 +2633,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2577,7 +2656,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2600,7 +2679,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2623,7 +2702,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2643,7 +2722,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2663,7 +2742,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2686,7 +2765,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2709,7 +2788,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2729,7 +2808,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2752,7 +2831,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2778,7 +2857,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2801,7 +2880,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2821,7 +2900,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2840,7 +2919,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2848,8 +2927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2857,15 +2936,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +3031,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2960,21 +3039,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3002,7 +3081,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3022,7 +3101,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3042,7 +3121,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3062,7 +3141,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3082,7 +3161,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3102,10 +3181,10 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -3122,10 +3201,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -3142,10 +3221,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -3158,13 +3237,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
@@ -3172,12 +3251,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,7 +3284,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3225,7 +3304,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3245,7 +3324,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3265,7 +3344,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3285,7 +3364,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3301,26 +3380,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3345,7 +3424,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3357,15 +3436,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>48</v>
@@ -3375,6 +3454,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="264">
   <si>
     <t>Result</t>
   </si>
@@ -559,6 +559,282 @@
   </si>
   <si>
     <t>Thu Nov 07 20:15:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:09:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:09:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:09:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:10:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:10:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:11:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:11:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:11:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:11:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:12:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:12:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:12:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:13:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:13:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:13:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:14:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:14:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:14:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:15:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:15:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:15:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:16:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:16:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:16:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:17:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:17:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:17:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:18:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:18:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:18:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:19:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:19:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:19:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:20:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:20:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:20:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:21:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:21:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:21:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:22:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:22:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:22:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:23:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:23:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:23:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:24:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:24:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:24:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:25:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:25:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:26:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:26:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:26:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:27:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:27:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:27:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:28:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:28:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:28:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:29:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:29:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:29:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:30:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:30:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:30:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:31:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:31:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:31:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:32:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:32:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:32:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:33:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:33:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:33:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:34:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:34:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:34:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:35:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:35:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:35:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:36:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:36:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:37:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:37:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:37:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:37:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:38:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:38:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:39:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:39:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:40:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:40:28 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1261,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1008,7 +1284,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1031,7 +1307,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1057,7 +1333,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1083,7 +1359,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1109,7 +1385,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1191,7 +1467,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1208,7 +1484,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1225,7 +1501,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1242,7 +1518,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1262,7 +1538,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1282,7 +1558,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1302,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1322,7 +1598,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1342,7 +1618,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1362,7 +1638,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1382,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1402,7 +1678,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1422,7 +1698,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1442,7 +1718,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1459,7 +1735,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1482,7 +1758,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1502,7 +1778,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1519,7 +1795,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1591,7 +1867,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1614,7 +1890,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1634,7 +1910,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1657,7 +1933,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1680,7 +1956,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1703,7 +1979,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1786,7 +2062,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1806,7 +2082,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1829,7 +2105,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1852,7 +2128,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1875,7 +2151,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1898,7 +2174,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1918,7 +2194,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1941,7 +2217,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1964,7 +2240,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1987,7 +2263,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2010,7 +2286,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2030,7 +2306,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2053,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2076,7 +2352,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2099,7 +2375,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2122,7 +2398,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2145,7 +2421,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2168,7 +2444,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2188,7 +2464,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2208,7 +2484,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2231,7 +2507,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2254,7 +2530,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2274,7 +2550,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2297,7 +2573,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2323,7 +2599,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2346,7 +2622,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2366,7 +2642,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2389,7 +2665,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2412,7 +2688,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2435,7 +2711,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2455,7 +2731,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2475,7 +2751,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2498,7 +2774,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2521,7 +2797,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2541,7 +2817,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2564,7 +2840,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2590,7 +2866,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2613,7 +2889,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2633,7 +2909,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2656,7 +2932,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2679,7 +2955,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2702,7 +2978,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2722,7 +2998,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2742,7 +3018,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2765,7 +3041,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2788,7 +3064,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2808,7 +3084,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2831,7 +3107,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2857,7 +3133,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2880,7 +3156,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2900,7 +3176,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3081,7 +3357,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3101,7 +3377,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3121,7 +3397,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3141,7 +3417,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3161,7 +3437,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3284,7 +3560,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3304,7 +3580,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3324,7 +3600,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3344,7 +3620,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3364,7 +3640,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>263</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3424,7 +3700,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3409E441-4DFF-4CAC-BC9C-79295FC62AB0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9ED6583B-CE4A-4F74-8DBA-525A334DEAB9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="5" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView activeTab="6" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="241">
   <si>
     <t>Result</t>
   </si>
@@ -195,646 +195,577 @@
     <t>MFLicNum</t>
   </si>
   <si>
+    <t>Thu Nov 07 18:31:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:33:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:33:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:34:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:04:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:05:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:05:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:05:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:05:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:06:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:06:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:06:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:07:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:07:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:07:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:08:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:08:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:08:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:08:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:09:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:09:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:09:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:10:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:10:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:10:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:11:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:11:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:11:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:11:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:12:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:12:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:12:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:13:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:13:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:13:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:13:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:14:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:14:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:14:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:15:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:15:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:15:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:16:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:16:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:16:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:16:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:17:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:17:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:17:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:18:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:18:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:18:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:19:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:19:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:19:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:20:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:20:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:20:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:20:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:21:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:21:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:21:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:22:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:22:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:22:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:23:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:23:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:23:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:24:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:24:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:24:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:25:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:25:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:25:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:26:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:26:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:26:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:26:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:27:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:27:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:27:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:28:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:28:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:28:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:29:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:29:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:29:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:30:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:30:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:30:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:30:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:31:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:31:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:32:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:32:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 16:32:52 EST 2025</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Thu Nov 07 18:02:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:02:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:03:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:03:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:03:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:04:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:04:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:05:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:05:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:05:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:06:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:06:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:06:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:07:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:07:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:07:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:08:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:08:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:08:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:09:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:09:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:09:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:10:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:10:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:10:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:11:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:11:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:11:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:12:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:12:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:12:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:13:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:13:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:14:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:14:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:14:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:15:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:15:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:15:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:16:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:16:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:16:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:17:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:17:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:17:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:18:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:18:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:18:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:19:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:19:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:20:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:20:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:20:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:21:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:21:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:21:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:22:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:22:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:23:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:23:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:23:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:24:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:24:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:24:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:25:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:25:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:25:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:26:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:26:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:27:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:27:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:27:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:28:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:28:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:28:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:29:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:29:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:29:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:30:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:30:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:31:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:31:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:31:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:32:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:32:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:32:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:33:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:33:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:33:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:34:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:34:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:34:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:35:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:35:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:36:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 19:49:01 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:06:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:06:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:06:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:07:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:07:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:07:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:08:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:08:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:09:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:09:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:09:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:10:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:10:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:11:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:11:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:11:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:12:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:12:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:12:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:13:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:13:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:14:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:14:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:15:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:09:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:09:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:09:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:10:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:10:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:11:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:11:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:11:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:11:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:12:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:12:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:12:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:13:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:13:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:13:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:14:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:14:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:14:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:15:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:15:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:15:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:16:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:16:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:16:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:17:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:17:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:17:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:18:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:18:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:18:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:19:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:19:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:19:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:20:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:20:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:20:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:21:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:21:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:21:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:22:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:22:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:22:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:23:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:23:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:23:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:24:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:24:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:24:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:25:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:25:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:26:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:26:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:26:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:27:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:27:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:27:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:28:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:28:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:28:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:29:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:29:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:29:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:30:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:30:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:30:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:31:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:31:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:31:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:32:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:32:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:32:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:33:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:33:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:33:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:34:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:34:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:34:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:35:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:35:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:35:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:36:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:36:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:37:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:37:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:37:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:37:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:38:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:38:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:39:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:39:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:40:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:40:28 EST 2024</t>
+    <t>Tue Jan 28 17:33:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:34:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:34:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:34:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:35:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:35:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:35:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:35:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:36:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:36:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:36:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:37:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:37:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:37:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:38:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:38:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:38:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:38:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:39:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:39:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:39:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:40:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:40:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:40:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:41:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:41:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:41:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:41:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:42:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:42:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:42:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:43:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:43:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:43:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:44:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:44:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:44:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:44:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:45:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:45:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:45:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:46:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:46:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:46:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:47:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:47:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:47:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:48:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:48:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:48:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:48:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:49:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:49:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:49:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:50:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:50:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:50:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:51:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:51:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:51:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:52:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:52:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:52:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:53:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:53:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:53:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:54:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:54:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:54:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:54:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:55:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:55:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:55:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:56:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:56:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:56:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:57:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:57:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:57:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:58:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:58:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:58:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:59:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:59:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 17:59:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 18:00:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 18:00:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 18:00:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 18:01:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 18:01:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 18:01:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 18:02:21 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1145,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1192,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1273,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -1284,7 +1215,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1296,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -1307,7 +1238,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1319,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -1333,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1345,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1359,7 +1290,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1371,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -1385,7 +1316,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1397,7 +1328,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -1467,7 +1398,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1484,7 +1415,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1501,7 +1432,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1518,7 +1449,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1538,7 +1469,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1558,7 +1489,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1578,7 +1509,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1598,7 +1529,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1618,7 +1549,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1638,7 +1569,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1658,7 +1589,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1678,7 +1609,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1698,7 +1629,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1718,7 +1649,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1735,7 +1666,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1758,7 +1689,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1778,7 +1709,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1795,7 +1726,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1820,7 +1751,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,7 +1798,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1879,7 +1810,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
@@ -1890,7 +1821,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1902,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1910,7 +1841,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1922,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -1933,7 +1864,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1945,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>32</v>
@@ -1956,7 +1887,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1968,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>32</v>
@@ -1979,7 +1910,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1991,7 +1922,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>32</v>
@@ -2010,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,7 +1993,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2074,7 +2005,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2082,7 +2013,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2094,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -2105,7 +2036,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2117,7 +2048,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -2128,7 +2059,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2140,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -2151,7 +2082,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2163,7 +2094,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -2174,7 +2105,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2186,7 +2117,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2194,7 +2125,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2206,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -2217,7 +2148,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2229,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -2240,7 +2171,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2252,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -2263,7 +2194,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2275,7 +2206,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -2286,7 +2217,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2298,7 +2229,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2306,7 +2237,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2318,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -2329,7 +2260,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2341,7 +2272,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>32</v>
@@ -2352,7 +2283,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2364,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>32</v>
@@ -2375,7 +2306,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2387,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>32</v>
@@ -2398,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2410,7 +2341,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
@@ -2421,7 +2352,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2433,7 +2364,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
@@ -2444,7 +2375,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2456,7 +2387,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2464,7 +2395,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2476,7 +2407,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2484,7 +2415,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2496,7 +2427,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>32</v>
@@ -2507,7 +2438,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2519,7 +2450,7 @@
         <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>32</v>
@@ -2530,7 +2461,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2542,7 +2473,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2550,7 +2481,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2562,7 +2493,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>32</v>
@@ -2573,7 +2504,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2585,7 +2516,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -2599,7 +2530,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2611,7 +2542,7 @@
         <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
@@ -2622,7 +2553,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2634,7 +2565,7 @@
         <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2642,7 +2573,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2654,7 +2585,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -2665,7 +2596,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2677,7 +2608,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>32</v>
@@ -2688,7 +2619,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2700,7 +2631,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>32</v>
@@ -2711,7 +2642,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2723,7 +2654,7 @@
         <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2731,7 +2662,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2743,7 +2674,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2751,7 +2682,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2763,7 +2694,7 @@
         <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>32</v>
@@ -2774,7 +2705,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2786,7 +2717,7 @@
         <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>32</v>
@@ -2797,7 +2728,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2809,7 +2740,7 @@
         <v>41</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2817,7 +2748,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2829,7 +2760,7 @@
         <v>27</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>32</v>
@@ -2840,7 +2771,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2852,7 +2783,7 @@
         <v>42</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>32</v>
@@ -2866,7 +2797,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2878,7 +2809,7 @@
         <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -2889,7 +2820,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2901,7 +2832,7 @@
         <v>44</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2909,7 +2840,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2921,7 +2852,7 @@
         <v>28</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>32</v>
@@ -2932,7 +2863,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2944,7 +2875,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>32</v>
@@ -2955,7 +2886,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2967,7 +2898,7 @@
         <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>32</v>
@@ -2978,7 +2909,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2990,7 +2921,7 @@
         <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2998,7 +2929,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -3010,7 +2941,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3018,7 +2949,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3030,7 +2961,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>32</v>
@@ -3041,7 +2972,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3053,7 +2984,7 @@
         <v>46</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>32</v>
@@ -3064,7 +2995,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3076,7 +3007,7 @@
         <v>41</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3084,7 +3015,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3096,7 +3027,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>32</v>
@@ -3107,7 +3038,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3119,7 +3050,7 @@
         <v>42</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>32</v>
@@ -3133,7 +3064,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3145,7 +3076,7 @@
         <v>43</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>32</v>
@@ -3156,7 +3087,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3168,7 +3099,7 @@
         <v>44</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3176,7 +3107,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3188,7 +3119,7 @@
         <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>32</v>
@@ -3318,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3357,7 +3288,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3369,7 +3300,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3377,7 +3308,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3389,7 +3320,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3397,7 +3328,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3409,7 +3340,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3417,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3429,7 +3360,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3437,7 +3368,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3449,7 +3380,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3457,7 +3388,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>36</v>
@@ -3469,7 +3400,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3477,7 +3408,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>36</v>
@@ -3489,7 +3420,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3497,7 +3428,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -3509,7 +3440,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3521,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,7 +3491,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3572,7 +3503,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3580,7 +3511,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3592,7 +3523,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3600,7 +3531,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3612,7 +3543,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3620,7 +3551,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3632,7 +3563,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3640,7 +3571,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3652,7 +3583,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3631,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3717,7 +3648,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9ED6583B-CE4A-4F74-8DBA-525A334DEAB9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBBCF53-C9F5-447A-A39C-8B898DCC2A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="6" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView xWindow="1695" yWindow="645" windowWidth="23235" windowHeight="14535" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="147">
   <si>
     <t>Result</t>
   </si>
@@ -207,289 +207,7 @@
     <t>Thu Nov 07 18:34:05 EST 2024</t>
   </si>
   <si>
-    <t>Tue Jan 28 16:04:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:05:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:05:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:05:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:05:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:06:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:06:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:06:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:07:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:07:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:07:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:08:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:08:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:08:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:08:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:09:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:09:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:09:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:10:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:10:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:10:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:11:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:11:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:11:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:11:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:12:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:12:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:12:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:13:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:13:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:13:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:13:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:14:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:14:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:14:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:15:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:15:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:15:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:16:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:16:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:16:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:16:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:17:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:17:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:17:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:18:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:18:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:18:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:19:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:19:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:19:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:20:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:20:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:20:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:20:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:21:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:21:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:21:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:22:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:22:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:22:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:23:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:23:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:23:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:24:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:24:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:24:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:25:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:25:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:25:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:26:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:26:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:26:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:26:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:27:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:27:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:27:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:28:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:28:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:28:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:29:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:29:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:29:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:30:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:30:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:30:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:30:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:31:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:31:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:32:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:32:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 16:32:52 EST 2025</t>
-  </si>
-  <si>
     <t>2025</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Tue Jan 28 17:33:48 EST 2025</t>
@@ -772,7 +490,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -821,19 +538,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -850,10 +567,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -888,7 +605,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -940,7 +657,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1051,21 +768,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1082,7 +799,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1134,31 +851,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1192,7 +909,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1204,7 +921,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -1215,7 +932,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1227,7 +944,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -1238,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1250,7 +967,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -1264,7 +981,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1276,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1290,7 +1007,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1302,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -1316,7 +1033,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1328,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -1339,8 +1056,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1348,8 +1065,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
@@ -1357,14 +1074,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="52.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="52.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,7 +1115,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1415,7 +1132,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1432,7 +1149,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1449,7 +1166,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1469,7 +1186,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1489,7 +1206,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1509,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1529,7 +1246,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1549,7 +1266,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1569,7 +1286,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1589,7 +1306,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1609,7 +1326,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1629,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1649,7 +1366,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1666,7 +1383,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1689,7 +1406,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1709,7 +1426,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1726,7 +1443,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1739,7 +1456,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1747,8 +1464,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -1756,15 +1473,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1798,7 +1515,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1821,7 +1538,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1841,7 +1558,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1864,7 +1581,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1887,7 +1604,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1910,7 +1627,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1930,7 +1647,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1938,8 +1655,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
@@ -1947,16 +1664,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1993,7 +1710,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2013,7 +1730,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2036,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2059,7 +1776,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2082,7 +1799,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2105,7 +1822,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2125,7 +1842,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2148,7 +1865,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2171,7 +1888,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2194,7 +1911,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2217,7 +1934,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2237,7 +1954,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2260,7 +1977,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2283,7 +2000,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2306,7 +2023,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2329,7 +2046,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2341,7 +2058,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
@@ -2352,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2364,7 +2081,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
@@ -2375,7 +2092,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2387,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2395,7 +2112,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2415,7 +2132,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2427,7 +2144,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>32</v>
@@ -2438,7 +2155,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2450,7 +2167,7 @@
         <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>32</v>
@@ -2461,7 +2178,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2473,7 +2190,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2481,7 +2198,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2493,7 +2210,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>32</v>
@@ -2504,7 +2221,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2516,7 +2233,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -2530,7 +2247,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2542,7 +2259,7 @@
         <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
@@ -2553,7 +2270,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2565,7 +2282,7 @@
         <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2573,7 +2290,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2585,7 +2302,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -2596,7 +2313,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2619,7 +2336,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2642,7 +2359,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2662,7 +2379,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2682,7 +2399,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2705,7 +2422,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2728,7 +2445,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2748,7 +2465,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2771,7 +2488,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2797,7 +2514,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2809,7 +2526,7 @@
         <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -2820,7 +2537,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2840,7 +2557,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2863,7 +2580,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2886,7 +2603,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2909,7 +2626,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2929,7 +2646,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2949,7 +2666,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2972,7 +2689,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2995,7 +2712,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3015,7 +2732,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3038,7 +2755,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3064,7 +2781,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3087,7 +2804,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3107,7 +2824,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3126,7 +2843,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3134,8 +2851,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3143,15 +2860,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3238,7 +2955,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3246,21 +2963,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F9"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3288,7 +3005,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3300,7 +3017,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3308,7 +3025,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3328,7 +3045,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3348,7 +3065,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3368,7 +3085,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3391,7 +3108,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -3411,7 +3128,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -3431,7 +3148,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -3444,26 +3161,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3491,7 +3208,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3503,7 +3220,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,7 +3228,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3531,7 +3248,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3551,7 +3268,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3571,7 +3288,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3587,26 +3304,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3643,7 +3360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3651,7 +3368,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>48</v>
@@ -3661,6 +3378,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBBCF53-C9F5-447A-A39C-8B898DCC2A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404FEAA7-6162-4D2E-A333-C20EA05FBCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="645" windowWidth="23235" windowHeight="14535" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="30600" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="160">
   <si>
     <t>Result</t>
   </si>
@@ -195,295 +195,334 @@
     <t>MFLicNum</t>
   </si>
   <si>
-    <t>Thu Nov 07 18:31:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:33:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:33:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:34:05 EST 2024</t>
-  </si>
-  <si>
     <t>2025</t>
   </si>
   <si>
-    <t>Tue Jan 28 17:33:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:34:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:34:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:34:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:35:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:35:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:35:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:35:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:36:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:36:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:36:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:37:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:37:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:37:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:38:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:38:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:38:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:38:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:39:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:39:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:39:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:40:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:40:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:40:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:41:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:41:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:41:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:41:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:42:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:42:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:42:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:43:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:43:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:43:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:44:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:44:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:44:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:44:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:45:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:45:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:45:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:46:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:46:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:46:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:47:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:47:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:47:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:48:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:48:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:48:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:48:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:49:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:49:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:49:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:50:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:50:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:50:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:51:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:51:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:51:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:52:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:52:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:52:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:53:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:53:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:53:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:54:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:54:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:54:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:54:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:55:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:55:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:55:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:56:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:56:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:56:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:57:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:57:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:57:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:58:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:58:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:58:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:59:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:59:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 17:59:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 18:00:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 18:00:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 18:00:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 18:01:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 18:01:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 18:01:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 18:02:21 EST 2025</t>
+    <t>Digital Advertising Gross Revenues</t>
+  </si>
+  <si>
+    <t>PTE Composite</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:28:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:28:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:29:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:29:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:29:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:29:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:30:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:30:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:30:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:31:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:31:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:31:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:31:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:32:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:32:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:32:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:33:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:33:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:33:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:34:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:34:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:34:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:35:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:35:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:35:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:35:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:36:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:36:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:36:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:37:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:37:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:37:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:37:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:38:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:38:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:38:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:39:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:39:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:39:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:40:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:40:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:40:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:40:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:41:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:41:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:41:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:42:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:42:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:42:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:43:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:43:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:43:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:44:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:44:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:44:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:44:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:45:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:45:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:45:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:46:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:46:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:46:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:47:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:47:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:47:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:48:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:48:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:48:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:49:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:49:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:49:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:50:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:50:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:50:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:50:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:51:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:51:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:51:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:52:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:52:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:52:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:53:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:53:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:53:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:54:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:54:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:54:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:55:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:55:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:55:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:55:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:56:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:56:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:56:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:57:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:57:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:57:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:58:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:58:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:58:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:58:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:59:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:59:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 21:00:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 21:00:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 21:00:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 21:01:14 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -861,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -909,7 +948,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -921,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -932,7 +971,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -944,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -955,7 +994,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -967,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -981,7 +1020,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -993,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1007,7 +1046,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1019,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -1033,7 +1072,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1045,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -1066,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+      <selection activeCell="C16" sqref="C16:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1154,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1132,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1149,7 +1188,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1166,7 +1205,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1186,7 +1225,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1206,7 +1245,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1226,7 +1265,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1246,7 +1285,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1266,7 +1305,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1286,7 +1325,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1306,7 +1345,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1326,7 +1365,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1346,7 +1385,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1366,7 +1405,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1383,7 +1422,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1406,7 +1445,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1426,7 +1465,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1443,7 +1482,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1453,6 +1492,43 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1656,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2134,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
@@ -2081,7 +2157,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
@@ -2104,7 +2180,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2144,7 +2220,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>32</v>
@@ -2167,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>32</v>
@@ -2190,7 +2266,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2210,7 +2286,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>32</v>
@@ -2233,7 +2309,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -2259,7 +2335,7 @@
         <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
@@ -2282,7 +2358,7 @@
         <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2302,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -2526,7 +2602,7 @@
         <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -2839,6 +2915,204 @@
         <v>18</v>
       </c>
       <c r="H52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2967,7 +3241,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,7 +3279,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3017,7 +3291,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3025,7 +3299,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3045,7 +3319,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3065,7 +3339,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3085,7 +3359,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3105,7 +3379,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3117,7 +3391,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,7 +3399,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3137,7 +3411,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,7 +3419,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3157,7 +3431,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +3482,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3220,7 +3494,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3228,7 +3502,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3248,7 +3522,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3268,7 +3542,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3288,7 +3562,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3348,7 +3622,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3365,7 +3639,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404FEAA7-6162-4D2E-A333-C20EA05FBCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{404FEAA7-6162-4D2E-A333-C20EA05FBCDB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="3" windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="269">
   <si>
     <t>Result</t>
   </si>
@@ -523,12 +523,340 @@
   </si>
   <si>
     <t>Tue Feb 11 21:01:14 EST 2025</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:51:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:51:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:51:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:52:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:52:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:52:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:53:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:53:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:53:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:53:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:54:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:54:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:54:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:55:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:55:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:55:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:56:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:56:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:56:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:56:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:57:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:57:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:57:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:58:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:58:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:58:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:58:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:59:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:59:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:59:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:00:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:00:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:00:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:00:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:01:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:01:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:01:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:02:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:02:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:02:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:03:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:03:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:03:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:03:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:04:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:04:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:04:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:05:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:05:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:05:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:06:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:06:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:06:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:07:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:07:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:07:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:07:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:08:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:08:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:08:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:09:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:09:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:09:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:10:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:10:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:10:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:11:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:11:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:11:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:12:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:12:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:12:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:13:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:13:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:13:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:14:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:14:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:14:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:14:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:15:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:15:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:15:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:16:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:16:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:16:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:17:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:17:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:17:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:18:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:18:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:18:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:18:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:19:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:19:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:19:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:20:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:20:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:20:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:21:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:21:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:21:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:22:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:22:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:22:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:23:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:23:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 21:23:58 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,19 +905,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -606,10 +934,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -644,7 +972,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -696,7 +1024,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -807,21 +1135,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -838,7 +1166,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -890,15 +1218,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -906,15 +1234,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,7 +1276,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -971,7 +1299,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -994,7 +1322,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1020,7 +1348,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1046,7 +1374,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1072,7 +1400,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1095,8 +1423,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1104,8 +1432,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16:C21"/>
@@ -1113,14 +1441,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="52.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="52.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1154,7 +1482,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1171,7 +1499,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1188,7 +1516,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1205,7 +1533,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1225,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1245,7 +1573,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1265,7 +1593,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1285,7 +1613,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1305,7 +1633,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1325,7 +1653,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1345,7 +1673,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1365,7 +1693,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1385,7 +1713,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1405,7 +1733,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1422,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1445,7 +1773,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1465,7 +1793,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1482,7 +1810,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1499,7 +1827,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -1516,7 +1844,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -1532,7 +1860,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1540,8 +1868,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -1549,15 +1877,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1591,7 +1919,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1614,7 +1942,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1634,7 +1962,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1657,7 +1985,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1680,7 +2008,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1703,7 +2031,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1723,7 +2051,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1731,8 +2059,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:I61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="L46" sqref="L46"/>
@@ -1740,16 +2068,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1786,7 +2114,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1806,7 +2134,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1829,7 +2157,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1852,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1875,7 +2203,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1898,7 +2226,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1918,7 +2246,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1941,7 +2269,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1964,7 +2292,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1987,7 +2315,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2010,7 +2338,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2030,7 +2358,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2053,7 +2381,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2076,7 +2404,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2099,7 +2427,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2122,7 +2450,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2145,7 +2473,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2168,7 +2496,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2188,7 +2516,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2208,7 +2536,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2231,7 +2559,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2254,7 +2582,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2274,7 +2602,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2297,7 +2625,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2323,7 +2651,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2346,7 +2674,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2366,7 +2694,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2389,7 +2717,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2412,7 +2740,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2435,7 +2763,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2455,7 +2783,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2475,7 +2803,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2498,7 +2826,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2521,7 +2849,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2541,7 +2869,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2564,7 +2892,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2590,7 +2918,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2613,7 +2941,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2633,7 +2961,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2656,7 +2984,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2679,7 +3007,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2702,7 +3030,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2722,7 +3050,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2742,7 +3070,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2765,7 +3093,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2788,7 +3116,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2808,7 +3136,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2831,7 +3159,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2857,7 +3185,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2880,7 +3208,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2900,7 +3228,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2923,7 +3251,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
@@ -2943,7 +3271,7 @@
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
@@ -2966,7 +3294,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>32</v>
@@ -2989,7 +3317,7 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>32</v>
@@ -3009,7 +3337,7 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -3032,7 +3360,7 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>32</v>
@@ -3055,7 +3383,7 @@
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>32</v>
@@ -3075,7 +3403,7 @@
         <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>32</v>
@@ -3098,7 +3426,7 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>32</v>
@@ -3117,7 +3445,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3125,8 +3453,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3134,15 +3462,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3229,7 +3557,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3237,8 +3565,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -3246,12 +3574,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3279,7 +3607,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3299,7 +3627,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3319,7 +3647,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3339,7 +3667,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3359,7 +3687,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3379,7 +3707,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3399,7 +3727,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3419,7 +3747,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3435,13 +3763,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F6"/>
@@ -3449,12 +3777,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3482,7 +3810,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3502,7 +3830,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3522,7 +3850,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3542,7 +3870,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3562,7 +3890,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3578,13 +3906,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B9"/>
@@ -3592,12 +3920,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,7 +3950,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3639,7 +3967,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3652,6 +3980,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="376">
   <si>
     <t>Result</t>
   </si>
@@ -850,6 +850,327 @@
   </si>
   <si>
     <t>Mon Feb 17 21:23:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:07:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:08:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:08:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:08:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:08:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:09:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:09:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:09:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:10:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:10:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:10:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:11:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:11:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:11:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:12:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:12:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:13:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:13:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:13:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:14:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:14:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:14:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:15:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:15:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:15:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:16:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:16:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:16:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:17:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:17:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:17:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:17:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:18:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:18:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:18:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:19:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:19:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:19:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:20:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:20:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:20:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:21:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:21:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:21:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:22:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:22:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:22:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:23:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:23:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:24:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:24:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:24:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:25:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:25:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:26:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:26:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:26:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:27:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:27:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:27:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:28:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:28:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:28:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:29:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:29:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:30:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:30:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:30:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:31:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:31:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:31:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:32:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:32:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:32:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:33:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:33:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:33:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:34:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:34:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:34:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:35:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:35:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:35:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:36:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:36:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:37:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:37:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:37:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:38:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:38:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:38:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:39:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:39:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:39:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:40:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:40:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:40:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:41:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:41:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:42:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:42:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:42:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:43:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:44:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:44:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:45:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:45:57 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1597,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1299,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1322,7 +1643,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1348,7 +1669,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1374,7 +1695,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1400,7 +1721,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1482,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1499,7 +1820,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1516,7 +1837,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1533,7 +1854,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>278</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1553,7 +1874,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1573,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1593,7 +1914,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1613,7 +1934,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1633,7 +1954,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1653,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1673,7 +1994,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1693,7 +2014,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1713,7 +2034,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1733,7 +2054,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1750,7 +2071,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1773,7 +2094,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1793,7 +2114,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1810,7 +2131,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1827,7 +2148,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -1844,7 +2165,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -1919,7 +2240,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1942,7 +2263,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1962,7 +2283,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1985,7 +2306,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2008,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2031,7 +2352,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2114,7 +2435,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2134,7 +2455,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2157,7 +2478,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2180,7 +2501,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2203,7 +2524,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2226,7 +2547,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>306</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2246,7 +2567,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2269,7 +2590,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2292,7 +2613,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2315,7 +2636,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2338,7 +2659,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2358,7 +2679,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2381,7 +2702,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2404,7 +2725,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2427,7 +2748,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2450,7 +2771,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2473,7 +2794,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2496,7 +2817,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2516,7 +2837,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2536,7 +2857,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2559,7 +2880,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2582,7 +2903,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2602,7 +2923,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2625,7 +2946,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2651,7 +2972,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>325</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2674,7 +2995,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2694,7 +3015,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2717,7 +3038,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2740,7 +3061,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2763,7 +3084,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2783,7 +3104,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2803,7 +3124,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2826,7 +3147,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>333</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2849,7 +3170,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>334</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2869,7 +3190,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>335</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2892,7 +3213,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>336</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2918,7 +3239,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2941,7 +3262,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2961,7 +3282,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2984,7 +3305,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -3007,7 +3328,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -3030,7 +3351,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -3050,7 +3371,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -3070,7 +3391,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3093,7 +3414,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
+        <v>345</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3116,7 +3437,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>346</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3136,7 +3457,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
+        <v>347</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3159,7 +3480,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3185,7 +3506,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3208,7 +3529,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3228,7 +3549,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3251,7 +3572,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>352</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
@@ -3271,7 +3592,7 @@
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
@@ -3294,7 +3615,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>32</v>
@@ -3317,7 +3638,7 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>355</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>32</v>
@@ -3337,7 +3658,7 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -3360,7 +3681,7 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>32</v>
@@ -3383,7 +3704,7 @@
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>358</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>32</v>
@@ -3403,7 +3724,7 @@
         <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>32</v>
@@ -3426,7 +3747,7 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>32</v>
@@ -3607,7 +3928,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3627,7 +3948,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3647,7 +3968,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>365</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3667,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>366</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3687,7 +4008,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3707,7 +4028,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3727,7 +4048,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3747,7 +4068,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>370</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3810,7 +4131,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3830,7 +4151,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3850,7 +4171,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3870,7 +4191,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>374</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3890,7 +4211,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>375</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3950,7 +4271,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3967,7 +4288,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{404FEAA7-6162-4D2E-A333-C20EA05FBCDB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DFCCF669-693F-472A-9B24-8CCA25BAEC78}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView activeTab="7" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-3945"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="266">
   <si>
     <t>Result</t>
   </si>
@@ -204,325 +204,325 @@
     <t>PTE Composite</t>
   </si>
   <si>
-    <t>Tue Feb 11 20:28:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:28:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:29:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:29:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:29:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:29:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:30:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:30:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:30:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:31:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:31:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:31:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:31:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:32:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:32:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:32:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:33:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:33:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:33:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:34:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:34:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:34:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:35:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:35:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:35:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:35:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:36:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:36:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:36:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:37:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:37:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:37:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:37:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:38:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:38:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:38:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:39:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:39:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:39:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:40:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:40:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:40:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:40:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:41:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:41:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:41:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:42:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:42:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:42:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:43:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:43:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:43:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:44:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:44:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:44:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:44:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:45:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:45:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:45:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:46:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:46:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:46:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:47:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:47:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:47:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:48:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:48:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:48:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:49:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:49:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:49:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:50:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:50:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:50:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:50:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:51:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:51:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:51:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:52:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:52:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:52:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:53:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:53:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:53:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:54:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:54:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:54:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:55:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:55:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:55:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:55:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:56:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:56:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:56:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:57:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:57:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:57:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:58:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:58:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:58:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:58:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:59:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:59:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 21:00:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 21:00:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 21:00:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 21:01:14 EST 2025</t>
+    <t>Mon Feb 24 23:07:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:08:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:08:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:08:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:08:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:09:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:09:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:09:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:10:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:10:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:10:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:11:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:11:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:11:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:12:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:12:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:13:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:13:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:13:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:14:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:14:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:14:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:15:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:15:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:15:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:16:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:16:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:16:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:17:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:17:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:17:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:17:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:18:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:18:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:18:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:19:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:19:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:19:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:20:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:20:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:20:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:21:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:21:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:21:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:22:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:22:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:22:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:23:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:23:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:24:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:24:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:24:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:25:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:25:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:26:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:26:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:26:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:27:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:27:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:27:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:28:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:28:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:28:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:29:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:29:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:30:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:30:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:30:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:31:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:31:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:31:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:32:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:32:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:32:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:33:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:33:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:33:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:34:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:34:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:34:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:35:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:35:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:35:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:36:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:36:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:37:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:37:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:37:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:38:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:38:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:38:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:39:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:39:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:39:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:40:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:40:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:40:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:41:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:41:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:42:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:42:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:42:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:43:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:44:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:44:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:45:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:45:57 EST 2025</t>
   </si>
   <si>
     <t/>
@@ -531,646 +531,316 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Mon Feb 17 20:51:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:51:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:51:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:52:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:52:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:52:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:53:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:53:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:53:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:53:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:54:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:54:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:54:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:55:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:55:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:55:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:56:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:56:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:56:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:56:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:57:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:57:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:57:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:58:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:58:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:58:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:58:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:59:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:59:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:59:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:00:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:00:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:00:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:00:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:01:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:01:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:01:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:02:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:02:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:02:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:03:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:03:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:03:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:03:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:04:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:04:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:04:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:05:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:05:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:05:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:06:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:06:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:06:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:07:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:07:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:07:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:07:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:08:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:08:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:08:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:09:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:09:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:09:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:10:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:10:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:10:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:11:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:11:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:11:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:12:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:12:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:12:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:13:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:13:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:13:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:14:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:14:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:14:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:14:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:15:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:15:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:15:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:16:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:16:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:16:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:17:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:17:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:17:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:18:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:18:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:18:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:18:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:19:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:19:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:19:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:20:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:20:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:20:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:21:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:21:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:21:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:22:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:22:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:22:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:23:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:23:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 21:23:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:07:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:08:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:08:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:08:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:08:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:09:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:09:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:09:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:10:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:10:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:10:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:11:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:11:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:11:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:12:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:12:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:13:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:13:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:13:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:14:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:14:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:14:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:15:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:15:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:15:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:16:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:16:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:16:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:17:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:17:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:17:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:17:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:18:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:18:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:18:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:19:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:19:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:19:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:20:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:20:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:20:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:21:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:21:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:21:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:22:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:22:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:22:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:23:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:23:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:24:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:24:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:24:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:25:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:25:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:26:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:26:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:26:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:27:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:27:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:27:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:28:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:28:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:28:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:29:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:29:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:30:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:30:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:30:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:31:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:31:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:31:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:32:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:32:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:32:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:33:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:33:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:33:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:34:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:34:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:34:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:35:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:35:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:35:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:36:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:36:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:37:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:37:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:37:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:38:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:38:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:38:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:39:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:39:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:39:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:40:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:40:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:40:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:41:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:41:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:42:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:42:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:42:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:43:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:44:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:44:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:45:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:45:57 EST 2025</t>
+    <t>Sat Oct 04 13:28:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:28:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:28:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:28:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:28:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:28:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:28:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:28:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:29:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:30:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:31:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:32:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:33:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:34:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:35:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:35:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:35:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:35:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:35:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:35:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:35:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:35:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 13:35:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 14:55:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 14:55:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 14:56:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 14:56:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 14:56:31 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -1553,20 +1223,20 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7265625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.26953125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.54296875" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1592,12 +1262,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1615,12 +1285,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1638,12 +1308,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1664,12 +1334,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1690,12 +1360,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1716,12 +1386,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1757,22 +1427,22 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="52.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="13.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="52.453125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.453125" collapsed="true"/>
+    <col min="6" max="7" style="1" width="9.1796875" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,12 +1468,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1815,12 +1485,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1832,12 +1502,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1849,12 +1519,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1869,12 +1539,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1889,12 +1559,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1909,12 +1579,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1929,12 +1599,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1949,12 +1619,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1969,12 +1639,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1989,12 +1659,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2009,12 +1679,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2029,12 +1699,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2049,12 +1719,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2066,12 +1736,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2089,12 +1759,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2109,12 +1779,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2126,15 +1796,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>48</v>
@@ -2143,12 +1813,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2160,12 +1830,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2196,20 +1866,20 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.453125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.1796875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.26953125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2235,12 +1905,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2258,12 +1928,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2278,12 +1948,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2301,12 +1971,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2324,12 +1994,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2347,12 +2017,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2383,25 +2053,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="39.5703125" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="12.36328125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="39.54296875" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.81640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="14.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="12.7265625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2430,12 +2100,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2450,12 +2120,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2473,12 +2143,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2496,12 +2166,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2519,12 +2189,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2542,12 +2212,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2562,12 +2232,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2585,12 +2255,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2608,12 +2278,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2631,12 +2301,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2654,12 +2324,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2674,12 +2344,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2697,12 +2367,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2720,12 +2390,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2743,12 +2413,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2766,12 +2436,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2789,12 +2459,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2812,12 +2482,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2832,12 +2502,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2852,12 +2522,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2875,12 +2545,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2898,12 +2568,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2918,12 +2588,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>323</v>
+        <v>215</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2941,12 +2611,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2967,12 +2637,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2990,12 +2660,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -3010,12 +2680,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>327</v>
+        <v>219</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -3033,12 +2703,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>220</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -3056,12 +2726,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -3079,12 +2749,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -3099,12 +2769,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -3119,12 +2789,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
+        <v>224</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -3142,12 +2812,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -3165,12 +2835,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>334</v>
+        <v>226</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -3185,12 +2855,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>335</v>
+        <v>227</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -3208,12 +2878,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
+        <v>228</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -3234,12 +2904,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -3257,12 +2927,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -3277,12 +2947,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -3300,12 +2970,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -3323,12 +2993,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -3346,12 +3016,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>234</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -3366,12 +3036,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -3386,12 +3056,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>344</v>
+        <v>236</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3409,12 +3079,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3432,12 +3102,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3452,12 +3122,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>347</v>
+        <v>239</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3475,12 +3145,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3501,12 +3171,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3524,12 +3194,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3544,12 +3214,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3567,12 +3237,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
@@ -3587,12 +3257,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
@@ -3610,15 +3280,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>354</v>
+        <v>138</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>16</v>
@@ -3633,12 +3303,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>355</v>
+        <v>246</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>32</v>
@@ -3653,12 +3323,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>356</v>
+        <v>247</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -3676,15 +3346,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>357</v>
+        <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>16</v>
@@ -3699,12 +3369,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>32</v>
@@ -3719,12 +3389,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>359</v>
+        <v>249</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>32</v>
@@ -3742,15 +3412,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>16</v>
@@ -3781,17 +3451,17 @@
       <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3811,7 +3481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3822,7 +3492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3830,7 +3500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
@@ -3844,7 +3514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3855,7 +3525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3866,7 +3536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3890,20 +3560,20 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3923,12 +3593,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3943,12 +3613,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3963,12 +3633,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3983,12 +3653,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -4003,12 +3673,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -4023,15 +3693,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -4043,15 +3713,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -4063,15 +3733,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -4096,17 +3766,17 @@
       <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4126,12 +3796,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -4146,12 +3816,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -4166,12 +3836,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -4186,12 +3856,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -4206,12 +3876,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -4235,21 +3905,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4266,12 +3936,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -4283,15 +3953,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>48</v>

--- a/KatalonData/RADTestData/MRF.xlsx
+++ b/KatalonData/RADTestData/MRF.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="365">
   <si>
     <t>Result</t>
   </si>
@@ -841,6 +841,303 @@
   </si>
   <si>
     <t>Sat Oct 04 14:56:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:26:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:26:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:26:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:26:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:26:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:27:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:27:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:27:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:27:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:27:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:27:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:27:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:27:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:27:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:28:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:28:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:28:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:28:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:28:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:28:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:28:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:28:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:28:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:28:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:29:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:29:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:29:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:29:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:29:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:29:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:29:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:29:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:29:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:29:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:30:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:30:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:30:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:30:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:30:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:30:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:30:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:30:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:30:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:30:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:31:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:31:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:31:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:31:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:31:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:31:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:31:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:31:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:31:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:31:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:32:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:32:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:32:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:32:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:32:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:32:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:32:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:32:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:32:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:32:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:33:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:33:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:33:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:33:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:33:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:33:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:33:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:33:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:33:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:34:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:34:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:34:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:34:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:34:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:34:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:34:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:34:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:34:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:34:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:35:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:35:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:35:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:35:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:35:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:35:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:35:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:35:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:35:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:36:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:36:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:36:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:36:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:36:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:36:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:37:14 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1564,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1290,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1313,7 +1610,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1339,7 +1636,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1365,7 +1662,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1391,7 +1688,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1473,7 +1770,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1490,7 +1787,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1507,7 +1804,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1524,7 +1821,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1544,7 +1841,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1564,7 +1861,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1584,7 +1881,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1604,7 +1901,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1624,7 +1921,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1644,7 +1941,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1664,7 +1961,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>282</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1684,7 +1981,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1704,7 +2001,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1724,7 +2021,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1741,7 +2038,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1764,7 +2061,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1784,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1818,7 +2115,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>289</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -1835,7 +2132,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -1910,7 +2207,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1933,7 +2230,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1953,7 +2250,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1976,7 +2273,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1999,7 +2296,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2022,7 +2319,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2105,7 +2402,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>297</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2125,7 +2422,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2148,7 +2445,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2171,7 +2468,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2194,7 +2491,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2217,7 +2514,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2237,7 +2534,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2260,7 +2557,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2283,7 +2580,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2306,7 +2603,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2329,7 +2626,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2349,7 +2646,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2372,7 +2669,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2395,7 +2692,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2418,7 +2715,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2441,7 +2738,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2464,7 +2761,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2487,7 +2784,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2507,7 +2804,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>315</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2527,7 +2824,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2550,7 +2847,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2573,7 +2870,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>318</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2593,7 +2890,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2616,7 +2913,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>320</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2642,7 +2939,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>321</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2665,7 +2962,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2685,7 +2982,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>323</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2708,7 +3005,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2731,7 +3028,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>325</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2754,7 +3051,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>326</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2774,7 +3071,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2794,7 +3091,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>328</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2817,7 +3114,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2840,7 +3137,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2860,7 +3157,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2883,7 +3180,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2909,7 +3206,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>333</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2932,7 +3229,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>230</v>
+        <v>334</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2952,7 +3249,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>335</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2975,7 +3272,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>336</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2998,7 +3295,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -3021,7 +3318,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -3041,7 +3338,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -3061,7 +3358,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>340</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3084,7 +3381,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>341</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3107,7 +3404,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3127,7 +3424,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3150,7 +3447,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>344</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3176,7 +3473,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>345</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3199,7 +3496,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3219,7 +3516,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>347</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3242,7 +3539,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
@@ -3262,7 +3559,7 @@
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
@@ -3308,7 +3605,7 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>350</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>32</v>
@@ -3328,7 +3625,7 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -3374,7 +3671,7 @@
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>32</v>
@@ -3394,7 +3691,7 @@
         <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>353</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>32</v>
@@ -3598,7 +3895,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>355</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3618,7 +3915,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>356</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3638,7 +3935,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>357</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3658,7 +3955,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3678,7 +3975,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>359</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3801,7 +4098,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>360</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3821,7 +4118,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3841,7 +4138,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>362</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3861,7 +4158,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3881,7 +4178,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3941,7 +4238,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
